--- a/nmadb/479993.xlsx
+++ b/nmadb/479993.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="435" yWindow="480" windowWidth="19440" windowHeight="7155"/>
@@ -14,7 +14,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$211</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="124519"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="132">
   <si>
     <t>t</t>
   </si>
@@ -2122,17 +2122,20 @@
       </rPr>
       <t>]</t>
     </r>
+  </si>
+  <si>
+    <t>id</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2148,13 +2151,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -2244,382 +2240,382 @@
   <cellStyleXfs count="376">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2627,19 +2623,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2649,440 +2645,443 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="1" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="376">
-    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="15" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="17" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="19" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="21" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="23" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="25" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="27" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="29" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="31" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="33" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="35" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="37" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="39" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="41" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="43" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="45" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="47" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="49" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="51" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="53" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="55" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="57" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="59" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="61" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="63" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="65" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="67" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="69" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="71" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="73" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="75" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="77" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="79" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="81" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="83" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="85" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="87" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="89" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="91" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="93" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="95" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="97" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="99" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="101" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="103" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="105" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="107" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="109" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="111" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="113" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="115" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="117" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="119" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="121" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="123" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="125" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="127" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="129" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="131" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="133" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="135" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="137" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="139" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="141" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="143" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="145" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="147" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="149" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="151" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="153" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="155" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="157" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="159" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="161" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="163" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="165" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="167" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="169" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="171" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="173" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="175" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="177" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="179" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="181" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="183" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="185" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="187" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="189" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="191" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="193" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="195" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="197" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="199" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="201" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="203" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="205" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="207" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="209" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="211" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="213" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="215" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="217" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="219" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="221" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="223" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="225" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="227" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="229" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="231" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="233" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="235" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="237" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="239" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="241" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="243" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="245" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="247" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="249" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="251" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="253" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="255" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="257" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="259" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="261" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="263" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="265" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="267" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="269" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="271" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="273" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="275" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="277" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="279" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="281" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="283" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="285" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="287" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="289" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="291" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="293" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="295" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="297" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="299" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="301" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="303" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="305" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="307" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="309" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="311" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="313" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="315" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="317" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="319" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="321" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="323" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="325" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="327" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="329" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="331" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="333" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="335" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="337" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="339" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="341" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="343" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="345" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="347" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="349" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="351" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="353" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="355" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="357" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="359" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="361" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="363" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="365" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="367" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="369" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="371" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="373" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="375" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="8" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="10" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="12" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="14" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="16" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="18" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="20" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="22" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="24" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="26" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="28" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="30" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="32" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="34" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="36" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="38" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="40" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="42" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="44" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="46" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="48" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="50" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="52" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="54" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="56" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="58" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="60" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="62" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="64" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="66" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="68" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="70" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="72" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="74" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="76" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="78" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="80" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="82" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="84" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="86" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="88" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="90" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="92" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="94" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="96" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="98" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="100" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="102" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="104" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="106" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="108" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="110" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="112" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="114" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="116" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="118" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="120" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="122" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="124" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="126" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="128" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="130" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="132" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="134" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="136" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="138" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="140" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="142" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="144" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="146" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="148" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="150" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="152" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="154" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="156" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="158" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="160" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="162" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="164" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="166" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="168" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="170" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="172" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="174" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="176" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="178" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="180" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="182" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="184" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="186" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="188" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="190" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="192" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="194" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="196" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="198" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="200" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="202" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="204" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="206" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="208" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="210" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="212" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="214" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="216" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="218" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="220" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="222" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="224" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="226" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="228" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="230" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="232" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="234" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="236" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="238" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="240" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="242" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="244" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="246" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="248" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="250" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="252" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="254" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="256" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="258" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="260" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="262" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="264" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="266" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="268" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="270" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="272" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="274" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="276" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="278" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="280" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="282" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="284" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="286" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="288" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="290" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="292" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="294" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="296" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="298" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="300" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="302" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="304" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="306" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="308" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="310" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="312" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="314" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="316" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="318" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="320" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="322" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="324" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="326" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="328" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="330" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="332" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="334" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="336" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="338" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="340" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="342" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="344" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="346" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="348" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="350" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="352" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="354" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="356" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="358" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="360" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="362" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="364" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="366" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="368" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="370" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="372" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="374" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="2" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="4" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="6" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="8" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="10" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="12" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="14" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="16" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="18" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="20" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="22" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="24" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="26" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="28" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="30" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="32" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="34" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="36" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="38" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="40" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="42" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="44" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="46" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="48" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="50" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="52" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="54" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="56" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="58" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="60" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="62" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="64" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="66" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="68" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="70" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="72" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="74" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="76" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="78" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="80" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="82" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="84" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="86" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="88" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="90" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="92" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="94" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="96" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="98" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="100" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="102" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="104" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="106" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="108" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="110" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="112" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="114" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="116" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="118" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="120" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="122" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="124" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="126" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="128" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="130" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="132" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="134" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="136" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="138" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="140" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="142" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="144" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="146" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="148" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="150" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="152" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="154" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="156" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="158" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="160" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="162" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="164" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="166" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="168" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="170" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="172" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="174" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="176" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="178" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="180" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="182" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="184" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="186" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="188" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="190" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="192" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="194" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="196" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="198" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="200" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="202" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="204" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="206" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="208" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="210" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="212" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="214" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="216" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="218" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="220" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="222" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="224" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="226" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="228" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="230" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="232" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="234" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="236" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="238" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="240" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="242" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="244" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="246" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="248" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="250" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="252" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="254" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="256" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="258" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="260" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="262" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="264" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="266" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="268" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="270" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="272" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="274" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="276" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="278" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="280" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="282" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="284" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="286" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="288" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="290" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="292" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="294" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="296" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="298" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="300" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="302" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="304" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="306" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="308" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="310" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="312" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="314" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="316" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="318" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="320" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="322" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="324" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="326" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="328" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="330" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="332" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="334" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="336" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="338" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="340" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="342" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="344" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="346" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="348" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="350" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="352" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="354" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="356" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="358" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="360" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="362" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="364" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="366" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="368" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="370" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="372" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte" xfId="374" builtinId="8" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="23" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="25" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="27" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="29" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="31" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="33" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="35" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="37" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="39" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="41" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="43" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="45" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="47" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="49" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="51" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="53" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="55" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="57" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="59" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="61" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="63" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="65" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="67" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="69" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="71" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="73" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="75" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="77" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="79" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="81" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="83" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="85" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="87" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="89" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="91" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="93" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="95" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="97" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="99" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="101" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="103" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="105" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="107" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="109" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="111" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="113" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="115" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="117" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="119" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="121" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="123" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="125" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="127" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="129" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="131" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="133" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="135" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="137" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="139" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="141" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="143" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="145" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="147" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="149" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="151" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="153" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="155" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="157" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="159" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="161" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="163" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="165" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="167" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="169" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="171" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="173" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="175" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="177" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="179" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="181" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="183" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="185" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="187" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="189" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="191" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="193" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="195" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="197" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="199" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="201" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="203" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="205" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="207" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="209" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="211" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="213" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="215" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="217" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="219" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="221" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="223" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="225" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="227" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="229" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="231" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="233" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="235" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="237" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="239" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="241" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="243" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="245" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="247" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="249" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="251" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="253" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="255" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="257" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="259" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="261" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="263" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="265" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="267" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="269" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="271" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="273" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="275" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="277" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="279" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="281" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="283" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="285" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="287" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="289" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="291" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="293" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="295" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="297" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="299" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="301" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="303" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="305" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="307" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="309" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="311" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="313" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="315" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="317" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="319" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="321" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="323" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="325" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="327" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="329" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="331" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="333" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="335" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="337" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="339" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="341" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="343" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="345" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="347" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="349" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="351" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="353" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="355" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="357" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="359" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="361" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="363" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="365" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="367" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="369" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="371" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="373" builtinId="9" hidden="1"/>
+    <cellStyle name="Lien hypertexte visité" xfId="375" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
@@ -3100,7 +3099,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3174,7 +3173,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -3209,7 +3207,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3385,21 +3382,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q211"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C209" sqref="C209"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.85546875" style="2" customWidth="1"/>
     <col min="3" max="3" width="8.85546875" style="2"/>
     <col min="4" max="4" width="9.42578125" style="2" customWidth="1"/>
     <col min="5" max="5" width="8.85546875" style="2"/>
-    <col min="6" max="6" width="10.42578125" style="13" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" style="12" customWidth="1"/>
     <col min="7" max="7" width="8.85546875" style="2"/>
     <col min="8" max="8" width="9.140625" style="10" customWidth="1"/>
     <col min="9" max="9" width="12" style="10" customWidth="1"/>
@@ -3408,456 +3405,478 @@
     <col min="12" max="16384" width="8.85546875" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15" t="s">
+      <c r="C1" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="D1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="18" t="s">
+      <c r="I1" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="18"/>
-      <c r="K1" s="19" t="s">
+      <c r="J1" s="31"/>
+      <c r="K1" s="17" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17">
       <c r="A2" s="2">
         <v>2008</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="21">
+      <c r="C2" s="19">
         <v>1</v>
       </c>
       <c r="D2" s="2">
         <v>1</v>
       </c>
-      <c r="E2" s="20">
+      <c r="E2" s="18">
         <v>-0.02</v>
       </c>
-      <c r="F2" s="22">
+      <c r="F2" s="20">
         <v>0.02</v>
       </c>
-      <c r="G2" s="21">
+      <c r="G2" s="19">
         <v>64</v>
       </c>
-      <c r="I2" s="23" t="s">
+      <c r="I2" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="24">
+      <c r="J2" s="22">
         <v>1</v>
       </c>
-      <c r="K2" s="25" t="s">
+      <c r="K2" s="23" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
+    <row r="3" spans="1:17">
+      <c r="B3" s="19"/>
+      <c r="C3" s="19">
+        <v>1</v>
+      </c>
       <c r="D3" s="2">
         <v>2</v>
       </c>
-      <c r="E3" s="20">
+      <c r="E3" s="18">
         <v>-0.56000000000000005</v>
       </c>
-      <c r="F3" s="22">
+      <c r="F3" s="20">
         <v>1.4E-2</v>
       </c>
-      <c r="G3" s="26">
+      <c r="G3" s="24">
         <v>133</v>
       </c>
-      <c r="I3" s="27"/>
-      <c r="J3" s="24">
+      <c r="I3" s="25"/>
+      <c r="J3" s="22">
         <v>2</v>
       </c>
-      <c r="K3" s="25" t="s">
+      <c r="K3" s="23" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
+    <row r="4" spans="1:17">
+      <c r="B4" s="19"/>
+      <c r="C4" s="19">
+        <v>1</v>
+      </c>
       <c r="D4" s="2">
         <v>2</v>
       </c>
-      <c r="E4" s="20">
+      <c r="E4" s="18">
         <v>-0.59</v>
       </c>
-      <c r="F4" s="22">
+      <c r="F4" s="20">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="G4" s="28">
+      <c r="G4" s="26">
         <v>131</v>
       </c>
-      <c r="I4" s="29"/>
-      <c r="J4" s="24">
+      <c r="I4" s="27"/>
+      <c r="J4" s="22">
         <v>3</v>
       </c>
-      <c r="K4" s="25" t="s">
+      <c r="K4" s="23" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" ht="15" customHeight="1">
       <c r="A5" s="2">
         <v>2012</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="C5" s="21">
+      <c r="C5" s="19">
         <v>2</v>
       </c>
       <c r="D5" s="2">
         <v>3</v>
       </c>
-      <c r="E5" s="20">
+      <c r="E5" s="18">
         <v>-0.9</v>
       </c>
-      <c r="F5" s="22">
+      <c r="F5" s="20">
         <v>0.05</v>
       </c>
-      <c r="G5" s="26">
+      <c r="G5" s="24">
         <v>389</v>
       </c>
-      <c r="I5" s="29"/>
-      <c r="J5" s="24">
+      <c r="I5" s="27"/>
+      <c r="J5" s="22">
         <v>4</v>
       </c>
-      <c r="K5" s="25" t="s">
+      <c r="K5" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="M5" s="11" t="s">
+      <c r="M5" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="N5" s="11"/>
-      <c r="O5" s="11"/>
-      <c r="P5" s="11"/>
-      <c r="Q5" s="11"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
+      <c r="N5" s="32"/>
+      <c r="O5" s="32"/>
+      <c r="P5" s="32"/>
+      <c r="Q5" s="32"/>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="B6" s="19"/>
+      <c r="C6" s="19">
+        <v>2</v>
+      </c>
       <c r="D6" s="2">
         <v>4</v>
       </c>
-      <c r="E6" s="20">
+      <c r="E6" s="18">
         <v>-1.4</v>
       </c>
-      <c r="F6" s="22">
+      <c r="F6" s="20">
         <v>0.05</v>
       </c>
-      <c r="G6" s="21">
+      <c r="G6" s="19">
         <v>390</v>
       </c>
-      <c r="I6" s="12"/>
-      <c r="J6" s="24">
+      <c r="I6" s="11"/>
+      <c r="J6" s="22">
         <v>5</v>
       </c>
-      <c r="K6" s="29" t="s">
+      <c r="K6" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="M6" s="11"/>
-      <c r="N6" s="11"/>
-      <c r="O6" s="11"/>
-      <c r="P6" s="11"/>
-      <c r="Q6" s="11"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B7" s="21"/>
-      <c r="C7" s="21"/>
+      <c r="M6" s="32"/>
+      <c r="N6" s="32"/>
+      <c r="O6" s="32"/>
+      <c r="P6" s="32"/>
+      <c r="Q6" s="32"/>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="B7" s="19"/>
+      <c r="C7" s="19">
+        <v>2</v>
+      </c>
       <c r="D7" s="2">
         <v>4</v>
       </c>
-      <c r="E7" s="20">
+      <c r="E7" s="18">
         <v>-1.4</v>
       </c>
-      <c r="F7" s="22">
+      <c r="F7" s="20">
         <v>0.05</v>
       </c>
-      <c r="G7" s="21">
+      <c r="G7" s="19">
         <v>390</v>
       </c>
-      <c r="I7" s="30"/>
-      <c r="J7" s="24">
+      <c r="I7" s="28"/>
+      <c r="J7" s="22">
         <v>6</v>
       </c>
-      <c r="K7" s="29" t="s">
+      <c r="K7" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="M7" s="11"/>
-      <c r="N7" s="11"/>
-      <c r="O7" s="11"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="11"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="M7" s="32"/>
+      <c r="N7" s="32"/>
+      <c r="O7" s="32"/>
+      <c r="P7" s="32"/>
+      <c r="Q7" s="32"/>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="2">
         <v>2012</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="C8" s="21">
+      <c r="C8" s="19">
         <v>3</v>
       </c>
       <c r="D8" s="2">
         <v>1</v>
       </c>
-      <c r="E8" s="20">
+      <c r="E8" s="18">
         <v>0.38</v>
       </c>
-      <c r="F8" s="22">
+      <c r="F8" s="20">
         <v>0.35</v>
       </c>
-      <c r="G8" s="26">
+      <c r="G8" s="24">
         <v>24</v>
       </c>
-      <c r="I8" s="29"/>
-      <c r="J8" s="24">
+      <c r="I8" s="27"/>
+      <c r="J8" s="22">
         <v>7</v>
       </c>
       <c r="K8" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11"/>
-      <c r="O8" s="11"/>
-      <c r="P8" s="11"/>
-      <c r="Q8" s="11"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
+      <c r="M8" s="32"/>
+      <c r="N8" s="32"/>
+      <c r="O8" s="32"/>
+      <c r="P8" s="32"/>
+      <c r="Q8" s="32"/>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="B9" s="19"/>
+      <c r="C9" s="19">
+        <v>3</v>
+      </c>
       <c r="D9" s="2">
         <v>2</v>
       </c>
-      <c r="E9" s="20">
+      <c r="E9" s="18">
         <v>-0.39</v>
       </c>
-      <c r="F9" s="31">
+      <c r="F9" s="29">
         <v>0.3</v>
       </c>
-      <c r="G9" s="21">
+      <c r="G9" s="19">
         <v>25</v>
       </c>
-      <c r="I9" s="12"/>
-      <c r="J9" s="24">
+      <c r="I9" s="11"/>
+      <c r="J9" s="22">
         <v>8</v>
       </c>
-      <c r="K9" s="32" t="s">
+      <c r="K9" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="M9" s="11"/>
-      <c r="N9" s="11"/>
-      <c r="O9" s="11"/>
-      <c r="P9" s="11"/>
-      <c r="Q9" s="11"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B10" s="21"/>
-      <c r="C10" s="21"/>
+      <c r="M9" s="32"/>
+      <c r="N9" s="32"/>
+      <c r="O9" s="32"/>
+      <c r="P9" s="32"/>
+      <c r="Q9" s="32"/>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="B10" s="19"/>
+      <c r="C10" s="19">
+        <v>3</v>
+      </c>
       <c r="D10" s="3">
         <v>6</v>
       </c>
-      <c r="E10" s="20">
+      <c r="E10" s="18">
         <v>-0.95</v>
       </c>
-      <c r="F10" s="31">
+      <c r="F10" s="29">
         <v>0.4</v>
       </c>
-      <c r="G10" s="26">
+      <c r="G10" s="24">
         <v>22</v>
       </c>
-      <c r="I10" s="12"/>
-      <c r="J10" s="24">
+      <c r="I10" s="11"/>
+      <c r="J10" s="22">
         <v>9</v>
       </c>
       <c r="K10" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="M10" s="11"/>
-      <c r="N10" s="11"/>
-      <c r="O10" s="11"/>
-      <c r="P10" s="11"/>
-      <c r="Q10" s="11"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="M10" s="32"/>
+      <c r="N10" s="32"/>
+      <c r="O10" s="32"/>
+      <c r="P10" s="32"/>
+      <c r="Q10" s="32"/>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="2">
         <v>2011</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="C11" s="21">
+      <c r="C11" s="19">
         <v>4</v>
       </c>
       <c r="D11" s="2">
         <v>5</v>
       </c>
-      <c r="E11" s="20">
+      <c r="E11" s="18">
         <v>-0.19</v>
       </c>
-      <c r="F11" s="31">
+      <c r="F11" s="29">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="G11" s="21">
+      <c r="G11" s="19">
         <v>115</v>
       </c>
-      <c r="I11" s="12"/>
-      <c r="J11" s="24">
+      <c r="I11" s="11"/>
+      <c r="J11" s="22">
         <v>10</v>
       </c>
       <c r="K11" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="M11" s="11"/>
-      <c r="N11" s="11"/>
-      <c r="O11" s="11"/>
-      <c r="P11" s="11"/>
-      <c r="Q11" s="11"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B12" s="21"/>
-      <c r="C12" s="21"/>
+      <c r="M11" s="32"/>
+      <c r="N11" s="32"/>
+      <c r="O11" s="32"/>
+      <c r="P11" s="32"/>
+      <c r="Q11" s="32"/>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="B12" s="19"/>
+      <c r="C12" s="19">
+        <v>4</v>
+      </c>
       <c r="D12" s="2">
         <v>6</v>
       </c>
-      <c r="E12" s="20">
+      <c r="E12" s="18">
         <v>-0.91</v>
       </c>
-      <c r="F12" s="31">
+      <c r="F12" s="29">
         <v>4.1000000000000002E-2</v>
       </c>
-      <c r="G12" s="21">
+      <c r="G12" s="19">
         <v>111</v>
       </c>
-      <c r="I12" s="12"/>
-      <c r="J12" s="24">
+      <c r="I12" s="11"/>
+      <c r="J12" s="22">
         <v>11</v>
       </c>
       <c r="K12" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="M12" s="11"/>
-      <c r="N12" s="11"/>
-      <c r="O12" s="11"/>
-      <c r="P12" s="11"/>
-      <c r="Q12" s="11"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B13" s="21"/>
-      <c r="C13" s="21"/>
+      <c r="M12" s="32"/>
+      <c r="N12" s="32"/>
+      <c r="O12" s="32"/>
+      <c r="P12" s="32"/>
+      <c r="Q12" s="32"/>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="B13" s="19"/>
+      <c r="C13" s="19">
+        <v>4</v>
+      </c>
       <c r="D13" s="2">
         <v>6</v>
       </c>
-      <c r="E13" s="20">
+      <c r="E13" s="18">
         <v>-0.97</v>
       </c>
-      <c r="F13" s="31">
+      <c r="F13" s="29">
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="G13" s="21">
+      <c r="G13" s="19">
         <v>113</v>
       </c>
-      <c r="I13" s="12"/>
-      <c r="J13" s="24">
+      <c r="I13" s="11"/>
+      <c r="J13" s="22">
         <v>12</v>
       </c>
       <c r="K13" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="M13" s="11"/>
-      <c r="N13" s="11"/>
-      <c r="O13" s="11"/>
-      <c r="P13" s="11"/>
-      <c r="Q13" s="11"/>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="M13" s="32"/>
+      <c r="N13" s="32"/>
+      <c r="O13" s="32"/>
+      <c r="P13" s="32"/>
+      <c r="Q13" s="32"/>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="2">
         <v>2009</v>
       </c>
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="C14" s="21">
+      <c r="C14" s="19">
         <v>5</v>
       </c>
       <c r="D14" s="2">
         <v>7</v>
       </c>
-      <c r="E14" s="20">
+      <c r="E14" s="18">
         <v>-0.1</v>
       </c>
-      <c r="F14" s="31">
+      <c r="F14" s="29">
         <v>0.1</v>
       </c>
-      <c r="G14" s="26">
+      <c r="G14" s="24">
         <v>104</v>
       </c>
-      <c r="I14" s="12"/>
-      <c r="J14" s="24">
+      <c r="I14" s="11"/>
+      <c r="J14" s="22">
         <v>13</v>
       </c>
       <c r="K14" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B15" s="21"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="21">
+    <row r="15" spans="1:17">
+      <c r="B15" s="19"/>
+      <c r="C15" s="19">
+        <v>5</v>
+      </c>
+      <c r="D15" s="19">
         <v>8</v>
       </c>
-      <c r="E15" s="20">
+      <c r="E15" s="18">
         <v>-0.6</v>
       </c>
-      <c r="F15" s="31">
+      <c r="F15" s="29">
         <v>0.1</v>
       </c>
-      <c r="G15" s="21">
+      <c r="G15" s="19">
         <v>213</v>
       </c>
-      <c r="I15" s="12"/>
-      <c r="J15" s="24">
+      <c r="I15" s="11"/>
+      <c r="J15" s="22">
         <v>14</v>
       </c>
       <c r="K15" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B16" s="21"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21">
+    <row r="16" spans="1:17">
+      <c r="B16" s="19"/>
+      <c r="C16" s="19">
+        <v>5</v>
+      </c>
+      <c r="D16" s="19">
         <v>8</v>
       </c>
-      <c r="E16" s="20">
+      <c r="E16" s="18">
         <v>-0.6</v>
       </c>
-      <c r="F16" s="31">
+      <c r="F16" s="29">
         <v>0.1</v>
       </c>
-      <c r="G16" s="26">
+      <c r="G16" s="24">
         <v>210</v>
       </c>
-      <c r="I16" s="12"/>
+      <c r="I16" s="11"/>
       <c r="J16" s="8">
         <v>15</v>
       </c>
@@ -3865,29 +3884,29 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11">
       <c r="A17" s="2">
         <v>2010</v>
       </c>
-      <c r="B17" s="20" t="s">
+      <c r="B17" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="C17" s="21">
+      <c r="C17" s="19">
         <v>6</v>
       </c>
       <c r="D17" s="2">
         <v>2</v>
       </c>
-      <c r="E17" s="20">
+      <c r="E17" s="18">
         <v>-1.1499999999999999</v>
       </c>
-      <c r="F17" s="31">
+      <c r="F17" s="29">
         <v>8.3000000000000004E-2</v>
       </c>
-      <c r="G17" s="26">
+      <c r="G17" s="24">
         <v>164</v>
       </c>
-      <c r="I17" s="12"/>
+      <c r="I17" s="11"/>
       <c r="J17" s="8">
         <v>16</v>
       </c>
@@ -3895,22 +3914,24 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B18" s="21"/>
-      <c r="C18" s="21"/>
+    <row r="18" spans="1:11">
+      <c r="B18" s="19"/>
+      <c r="C18" s="19">
+        <v>6</v>
+      </c>
       <c r="D18" s="2">
         <v>5</v>
       </c>
-      <c r="E18" s="20">
+      <c r="E18" s="18">
         <v>-0.96</v>
       </c>
-      <c r="F18" s="31">
+      <c r="F18" s="29">
         <v>8.1000000000000003E-2</v>
       </c>
-      <c r="G18" s="21">
+      <c r="G18" s="19">
         <v>163</v>
       </c>
-      <c r="I18" s="12"/>
+      <c r="I18" s="11"/>
       <c r="J18" s="8">
         <v>17</v>
       </c>
@@ -3918,21 +3939,24 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B19" s="21"/>
-      <c r="D19" s="21">
+    <row r="19" spans="1:11">
+      <c r="B19" s="19"/>
+      <c r="C19" s="19">
         <v>6</v>
       </c>
-      <c r="E19" s="20">
+      <c r="D19" s="19">
+        <v>6</v>
+      </c>
+      <c r="E19" s="18">
         <v>-1.56</v>
       </c>
-      <c r="F19" s="31">
+      <c r="F19" s="29">
         <v>8.1000000000000003E-2</v>
       </c>
-      <c r="G19" s="26">
+      <c r="G19" s="24">
         <v>163</v>
       </c>
-      <c r="I19" s="12"/>
+      <c r="I19" s="11"/>
       <c r="J19" s="8">
         <v>18</v>
       </c>
@@ -3940,21 +3964,24 @@
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B20" s="21"/>
-      <c r="D20" s="28">
+    <row r="20" spans="1:11">
+      <c r="B20" s="19"/>
+      <c r="C20" s="19">
         <v>6</v>
       </c>
-      <c r="E20" s="20">
+      <c r="D20" s="26">
+        <v>6</v>
+      </c>
+      <c r="E20" s="18">
         <v>-1.71</v>
       </c>
-      <c r="F20" s="31">
+      <c r="F20" s="29">
         <v>8.1000000000000003E-2</v>
       </c>
-      <c r="G20" s="21">
+      <c r="G20" s="19">
         <v>164</v>
       </c>
-      <c r="I20" s="12"/>
+      <c r="I20" s="11"/>
       <c r="J20" s="8">
         <v>19</v>
       </c>
@@ -3962,11 +3989,11 @@
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11">
       <c r="A21" s="2">
         <v>2011</v>
       </c>
-      <c r="B21" s="20" t="s">
+      <c r="B21" s="18" t="s">
         <v>60</v>
       </c>
       <c r="C21" s="2">
@@ -3975,16 +4002,16 @@
       <c r="D21" s="2">
         <v>1</v>
       </c>
-      <c r="E21" s="20">
+      <c r="E21" s="18">
         <v>0.05</v>
       </c>
-      <c r="F21" s="31">
+      <c r="F21" s="29">
         <v>0.06</v>
       </c>
-      <c r="G21" s="26">
+      <c r="G21" s="24">
         <v>75</v>
       </c>
-      <c r="I21" s="12"/>
+      <c r="I21" s="11"/>
       <c r="J21" s="8">
         <v>20</v>
       </c>
@@ -3992,20 +4019,23 @@
         <v>28</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11">
+      <c r="C22" s="2">
+        <v>7</v>
+      </c>
       <c r="D22" s="2">
         <v>2</v>
       </c>
-      <c r="E22" s="20">
+      <c r="E22" s="18">
         <v>-0.52</v>
       </c>
-      <c r="F22" s="13">
+      <c r="F22" s="12">
         <v>5.8999999999999997E-2</v>
       </c>
       <c r="G22" s="2">
         <v>79</v>
       </c>
-      <c r="I22" s="12"/>
+      <c r="I22" s="11"/>
       <c r="J22" s="8">
         <v>21</v>
       </c>
@@ -4013,20 +4043,23 @@
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11">
+      <c r="C23" s="2">
+        <v>7</v>
+      </c>
       <c r="D23" s="2">
         <v>2</v>
       </c>
-      <c r="E23" s="20">
+      <c r="E23" s="18">
         <v>-0.68</v>
       </c>
-      <c r="F23" s="13">
+      <c r="F23" s="12">
         <v>5.7000000000000002E-2</v>
       </c>
       <c r="G23" s="2">
         <v>84</v>
       </c>
-      <c r="I23" s="12"/>
+      <c r="I23" s="11"/>
       <c r="J23" s="8">
         <v>22</v>
       </c>
@@ -4034,20 +4067,23 @@
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11">
+      <c r="C24" s="2">
+        <v>7</v>
+      </c>
       <c r="D24" s="2">
         <v>2</v>
       </c>
-      <c r="E24" s="20">
+      <c r="E24" s="18">
         <v>-0.77</v>
       </c>
-      <c r="F24" s="13">
+      <c r="F24" s="12">
         <v>5.8999999999999997E-2</v>
       </c>
       <c r="G24" s="2">
         <v>80</v>
       </c>
-      <c r="I24" s="12"/>
+      <c r="I24" s="11"/>
       <c r="J24" s="8">
         <v>23</v>
       </c>
@@ -4055,20 +4091,23 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11">
+      <c r="C25" s="2">
+        <v>7</v>
+      </c>
       <c r="D25" s="2">
         <v>2</v>
       </c>
-      <c r="E25" s="20">
+      <c r="E25" s="18">
         <v>-0.8</v>
       </c>
-      <c r="F25" s="13">
+      <c r="F25" s="12">
         <v>5.8999999999999997E-2</v>
       </c>
       <c r="G25" s="2">
         <v>79</v>
       </c>
-      <c r="I25" s="12"/>
+      <c r="I25" s="11"/>
       <c r="J25" s="8">
         <v>24</v>
       </c>
@@ -4076,20 +4115,23 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11">
+      <c r="C26" s="2">
+        <v>7</v>
+      </c>
       <c r="D26" s="2">
         <v>9</v>
       </c>
-      <c r="E26" s="20">
+      <c r="E26" s="18">
         <v>-0.16</v>
       </c>
-      <c r="F26" s="13">
+      <c r="F26" s="12">
         <v>0.08</v>
       </c>
       <c r="G26" s="2">
         <v>83</v>
       </c>
-      <c r="I26" s="12"/>
+      <c r="I26" s="11"/>
       <c r="J26" s="8">
         <v>25</v>
       </c>
@@ -4097,11 +4139,11 @@
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11">
       <c r="A27" s="2">
         <v>2012</v>
       </c>
-      <c r="B27" s="20" t="s">
+      <c r="B27" s="18" t="s">
         <v>61</v>
       </c>
       <c r="C27" s="2">
@@ -4110,16 +4152,16 @@
       <c r="D27" s="2">
         <v>7</v>
       </c>
-      <c r="E27" s="20">
+      <c r="E27" s="18">
         <v>0.22</v>
       </c>
-      <c r="F27" s="13">
+      <c r="F27" s="12">
         <v>5.5E-2</v>
       </c>
       <c r="G27" s="2">
         <v>100</v>
       </c>
-      <c r="I27" s="12"/>
+      <c r="I27" s="11"/>
       <c r="J27" s="8">
         <v>26</v>
       </c>
@@ -4127,20 +4169,23 @@
         <v>33</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11">
+      <c r="C28" s="2">
+        <v>8</v>
+      </c>
       <c r="D28" s="2">
         <v>8</v>
       </c>
-      <c r="E28" s="20">
+      <c r="E28" s="18">
         <v>-0.55000000000000004</v>
       </c>
-      <c r="F28" s="13">
+      <c r="F28" s="12">
         <v>5.8000000000000003E-2</v>
       </c>
       <c r="G28" s="2">
         <v>92</v>
       </c>
-      <c r="I28" s="12"/>
+      <c r="I28" s="11"/>
       <c r="J28" s="8">
         <v>27</v>
       </c>
@@ -4148,20 +4193,23 @@
         <v>34</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11">
+      <c r="C29" s="2">
+        <v>8</v>
+      </c>
       <c r="D29" s="2">
         <v>8</v>
       </c>
-      <c r="E29" s="20">
+      <c r="E29" s="18">
         <v>-0.64</v>
       </c>
-      <c r="F29" s="13">
+      <c r="F29" s="12">
         <v>5.6000000000000001E-2</v>
       </c>
       <c r="G29" s="2">
         <v>96</v>
       </c>
-      <c r="I29" s="12"/>
+      <c r="I29" s="11"/>
       <c r="J29" s="8">
         <v>28</v>
       </c>
@@ -4169,11 +4217,11 @@
         <v>35</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11">
       <c r="A30" s="2">
         <v>2011</v>
       </c>
-      <c r="B30" s="20" t="s">
+      <c r="B30" s="18" t="s">
         <v>62</v>
       </c>
       <c r="C30" s="2">
@@ -4182,16 +4230,16 @@
       <c r="D30" s="2">
         <v>1</v>
       </c>
-      <c r="E30" s="20">
+      <c r="E30" s="18">
         <v>0.25</v>
       </c>
-      <c r="F30" s="13">
+      <c r="F30" s="12">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="G30" s="2">
         <v>167</v>
       </c>
-      <c r="I30" s="12"/>
+      <c r="I30" s="11"/>
       <c r="J30" s="8">
         <v>29</v>
       </c>
@@ -4199,20 +4247,23 @@
         <v>36</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11">
+      <c r="C31" s="2">
+        <v>9</v>
+      </c>
       <c r="D31" s="2">
         <v>10</v>
       </c>
-      <c r="E31" s="20">
+      <c r="E31" s="18">
         <v>-0.44</v>
       </c>
-      <c r="F31" s="13">
+      <c r="F31" s="12">
         <v>0.05</v>
       </c>
       <c r="G31" s="2">
         <v>336</v>
       </c>
-      <c r="I31" s="12"/>
+      <c r="I31" s="11"/>
       <c r="J31" s="8">
         <v>30</v>
       </c>
@@ -4220,11 +4271,11 @@
         <v>37</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11">
       <c r="A32" s="2">
         <v>2010</v>
       </c>
-      <c r="B32" s="20" t="s">
+      <c r="B32" s="18" t="s">
         <v>63</v>
       </c>
       <c r="C32" s="2">
@@ -4233,16 +4284,16 @@
       <c r="D32" s="2">
         <v>7</v>
       </c>
-      <c r="E32" s="20">
+      <c r="E32" s="18">
         <v>0.24</v>
       </c>
-      <c r="F32" s="13">
+      <c r="F32" s="12">
         <v>8.7999999999999995E-2</v>
       </c>
       <c r="G32" s="2">
         <v>71</v>
       </c>
-      <c r="I32" s="12"/>
+      <c r="I32" s="11"/>
       <c r="J32" s="8">
         <v>31</v>
       </c>
@@ -4250,20 +4301,23 @@
         <v>38</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11">
+      <c r="C33" s="2">
+        <v>10</v>
+      </c>
       <c r="D33" s="2">
         <v>11</v>
       </c>
-      <c r="E33" s="20">
+      <c r="E33" s="18">
         <v>-0.14000000000000001</v>
       </c>
-      <c r="F33" s="13">
+      <c r="F33" s="12">
         <v>0.115</v>
       </c>
       <c r="G33" s="2">
         <v>65</v>
       </c>
-      <c r="I33" s="12"/>
+      <c r="I33" s="11"/>
       <c r="J33" s="8">
         <v>32</v>
       </c>
@@ -4271,20 +4325,23 @@
         <v>39</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11">
+      <c r="C34" s="2">
+        <v>10</v>
+      </c>
       <c r="D34" s="2">
         <v>11</v>
       </c>
-      <c r="E34" s="20">
+      <c r="E34" s="18">
         <v>-0.5</v>
       </c>
-      <c r="F34" s="13">
+      <c r="F34" s="12">
         <v>0.10199999999999999</v>
       </c>
       <c r="G34" s="2">
         <v>65</v>
       </c>
-      <c r="I34" s="12"/>
+      <c r="I34" s="11"/>
       <c r="J34" s="8">
         <v>33</v>
       </c>
@@ -4292,20 +4349,23 @@
         <v>40</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11">
+      <c r="C35" s="2">
+        <v>10</v>
+      </c>
       <c r="D35" s="2">
         <v>11</v>
       </c>
-      <c r="E35" s="20">
+      <c r="E35" s="18">
         <v>-0.42</v>
       </c>
-      <c r="F35" s="13">
+      <c r="F35" s="12">
         <v>0.107</v>
       </c>
       <c r="G35" s="2">
         <v>66</v>
       </c>
-      <c r="I35" s="12"/>
+      <c r="I35" s="11"/>
       <c r="J35" s="8">
         <v>34</v>
       </c>
@@ -4313,20 +4373,23 @@
         <v>41</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11">
+      <c r="C36" s="2">
+        <v>10</v>
+      </c>
       <c r="D36" s="2">
         <v>12</v>
       </c>
-      <c r="E36" s="20">
+      <c r="E36" s="18">
         <v>-0.68</v>
       </c>
-      <c r="F36" s="13">
+      <c r="F36" s="12">
         <v>2.9000000000000001E-2</v>
       </c>
       <c r="G36" s="2">
         <v>65</v>
       </c>
-      <c r="I36" s="12"/>
+      <c r="I36" s="11"/>
       <c r="J36" s="8">
         <v>35</v>
       </c>
@@ -4334,11 +4397,11 @@
         <v>42</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11">
       <c r="A37" s="2">
         <v>2012</v>
       </c>
-      <c r="B37" s="20" t="s">
+      <c r="B37" s="18" t="s">
         <v>64</v>
       </c>
       <c r="C37" s="2">
@@ -4347,16 +4410,16 @@
       <c r="D37" s="2">
         <v>12</v>
       </c>
-      <c r="E37" s="20">
+      <c r="E37" s="18">
         <v>-0.36</v>
       </c>
-      <c r="F37" s="13">
+      <c r="F37" s="12">
         <v>0.03</v>
       </c>
       <c r="G37" s="2">
         <v>775</v>
       </c>
-      <c r="I37" s="12"/>
+      <c r="I37" s="11"/>
       <c r="J37" s="8">
         <v>36</v>
       </c>
@@ -4364,20 +4427,23 @@
         <v>43</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11">
+      <c r="C38" s="2">
+        <v>11</v>
+      </c>
       <c r="D38" s="2">
         <v>11</v>
       </c>
-      <c r="E38" s="20">
+      <c r="E38" s="18">
         <v>-0.16</v>
       </c>
-      <c r="F38" s="13">
+      <c r="F38" s="12">
         <v>0.03</v>
       </c>
       <c r="G38" s="2">
         <v>776</v>
       </c>
-      <c r="I38" s="12"/>
+      <c r="I38" s="11"/>
       <c r="J38" s="8">
         <v>37</v>
       </c>
@@ -4385,11 +4451,11 @@
         <v>44</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11">
       <c r="A39" s="2">
         <v>2011</v>
       </c>
-      <c r="B39" s="20" t="s">
+      <c r="B39" s="18" t="s">
         <v>65</v>
       </c>
       <c r="C39" s="2">
@@ -4398,16 +4464,16 @@
       <c r="D39" s="4">
         <v>5</v>
       </c>
-      <c r="E39" s="20">
+      <c r="E39" s="18">
         <v>-0.56000000000000005</v>
       </c>
-      <c r="F39" s="13">
+      <c r="F39" s="12">
         <v>0.09</v>
       </c>
       <c r="G39" s="2">
         <v>130</v>
       </c>
-      <c r="I39" s="12"/>
+      <c r="I39" s="11"/>
       <c r="J39" s="8">
         <v>38</v>
       </c>
@@ -4415,20 +4481,23 @@
         <v>45</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11">
+      <c r="C40" s="2">
+        <v>12</v>
+      </c>
       <c r="D40" s="2">
         <v>13</v>
       </c>
-      <c r="E40" s="20">
+      <c r="E40" s="18">
         <v>-1.06</v>
       </c>
-      <c r="F40" s="13">
+      <c r="F40" s="12">
         <v>0.06</v>
       </c>
       <c r="G40" s="2">
         <v>259</v>
       </c>
-      <c r="I40" s="12"/>
+      <c r="I40" s="11"/>
       <c r="J40" s="8">
         <v>39</v>
       </c>
@@ -4436,11 +4505,11 @@
         <v>46</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11">
       <c r="A41" s="2">
         <v>2012</v>
       </c>
-      <c r="B41" s="20" t="s">
+      <c r="B41" s="18" t="s">
         <v>66</v>
       </c>
       <c r="C41" s="2">
@@ -4449,16 +4518,16 @@
       <c r="D41" s="2">
         <v>1</v>
       </c>
-      <c r="E41" s="20">
+      <c r="E41" s="18">
         <v>0.1</v>
       </c>
-      <c r="F41" s="13">
+      <c r="F41" s="12">
         <v>1.2E-2</v>
       </c>
       <c r="G41" s="2">
         <v>72</v>
       </c>
-      <c r="I41" s="12"/>
+      <c r="I41" s="11"/>
       <c r="J41" s="8">
         <v>40</v>
       </c>
@@ -4466,20 +4535,23 @@
         <v>36</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11">
+      <c r="C42" s="2">
+        <v>13</v>
+      </c>
       <c r="D42" s="2">
         <v>10</v>
       </c>
-      <c r="E42" s="20">
+      <c r="E42" s="18">
         <v>-0.5</v>
       </c>
-      <c r="F42" s="13">
+      <c r="F42" s="12">
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="G42" s="2">
         <v>142</v>
       </c>
-      <c r="I42" s="12"/>
+      <c r="I42" s="11"/>
       <c r="J42" s="8">
         <v>41</v>
       </c>
@@ -4487,20 +4559,23 @@
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11">
+      <c r="C43" s="2">
+        <v>13</v>
+      </c>
       <c r="D43" s="2">
         <v>7</v>
       </c>
-      <c r="E43" s="20">
+      <c r="E43" s="18">
         <v>-0.6</v>
       </c>
-      <c r="F43" s="13">
+      <c r="F43" s="12">
         <v>8.3999999999999995E-3</v>
       </c>
       <c r="G43" s="2">
         <v>144</v>
       </c>
-      <c r="I43" s="12"/>
+      <c r="I43" s="11"/>
       <c r="J43" s="8">
         <v>42</v>
       </c>
@@ -4508,20 +4583,23 @@
         <v>47</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11">
+      <c r="C44" s="2">
+        <v>13</v>
+      </c>
       <c r="D44" s="2">
         <v>7</v>
       </c>
-      <c r="E44" s="20">
+      <c r="E44" s="18">
         <v>-1.1000000000000001</v>
       </c>
-      <c r="F44" s="13">
+      <c r="F44" s="12">
         <v>8.5000000000000006E-3</v>
       </c>
       <c r="G44" s="2">
         <v>147</v>
       </c>
-      <c r="I44" s="12"/>
+      <c r="I44" s="11"/>
       <c r="J44" s="8">
         <v>43</v>
       </c>
@@ -4529,20 +4607,23 @@
         <v>48</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11">
+      <c r="C45" s="2">
+        <v>13</v>
+      </c>
       <c r="D45" s="2">
         <v>11</v>
       </c>
-      <c r="E45" s="20">
+      <c r="E45" s="18">
         <v>-1.2</v>
       </c>
-      <c r="F45" s="13">
+      <c r="F45" s="12">
         <v>8.5000000000000006E-3</v>
       </c>
       <c r="G45" s="2">
         <v>143</v>
       </c>
-      <c r="I45" s="12"/>
+      <c r="I45" s="11"/>
       <c r="J45" s="7">
         <v>44</v>
       </c>
@@ -4550,25 +4631,28 @@
         <v>51</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11">
+      <c r="C46" s="2">
+        <v>13</v>
+      </c>
       <c r="D46" s="2">
         <v>11</v>
       </c>
-      <c r="E46" s="20">
+      <c r="E46" s="18">
         <v>-1.6</v>
       </c>
-      <c r="F46" s="13">
+      <c r="F46" s="12">
         <v>8.3999999999999995E-3</v>
       </c>
       <c r="G46" s="2">
         <v>143</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11">
       <c r="A47" s="2">
         <v>2012</v>
       </c>
-      <c r="B47" s="20" t="s">
+      <c r="B47" s="18" t="s">
         <v>67</v>
       </c>
       <c r="C47" s="2">
@@ -4577,49 +4661,55 @@
       <c r="D47" s="2">
         <v>1</v>
       </c>
-      <c r="E47" s="20">
+      <c r="E47" s="18">
         <v>0.63</v>
       </c>
-      <c r="F47" s="13">
+      <c r="F47" s="12">
         <v>0.08</v>
       </c>
       <c r="G47" s="2">
         <v>80</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11">
+      <c r="C48" s="2">
+        <v>14</v>
+      </c>
       <c r="D48" s="2">
         <v>10</v>
       </c>
-      <c r="E48" s="20">
+      <c r="E48" s="18">
         <v>-0.24</v>
       </c>
-      <c r="F48" s="13">
+      <c r="F48" s="12">
         <v>0.06</v>
       </c>
       <c r="G48" s="2">
         <v>159</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8">
+      <c r="C49" s="2">
+        <v>14</v>
+      </c>
       <c r="D49" s="2">
         <v>10</v>
       </c>
-      <c r="E49" s="20">
+      <c r="E49" s="18">
         <v>-0.25</v>
       </c>
-      <c r="F49" s="13">
+      <c r="F49" s="12">
         <v>0.06</v>
       </c>
       <c r="G49" s="2">
         <v>160</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8">
       <c r="A50" s="2">
         <v>2012</v>
       </c>
-      <c r="B50" s="20" t="s">
+      <c r="B50" s="18" t="s">
         <v>68</v>
       </c>
       <c r="C50" s="2">
@@ -4628,35 +4718,38 @@
       <c r="D50" s="3">
         <v>16</v>
       </c>
-      <c r="E50" s="20">
+      <c r="E50" s="18">
         <v>-7.0000000000000007E-2</v>
       </c>
-      <c r="F50" s="13">
+      <c r="F50" s="12">
         <v>0.1</v>
       </c>
       <c r="G50" s="2">
         <v>84</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8">
+      <c r="C51" s="2">
+        <v>15</v>
+      </c>
       <c r="D51" s="3">
         <v>44</v>
       </c>
-      <c r="E51" s="20">
+      <c r="E51" s="18">
         <v>-0.54</v>
       </c>
-      <c r="F51" s="13">
+      <c r="F51" s="12">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="G51" s="2">
         <v>161</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8">
       <c r="A52" s="2">
         <v>2011</v>
       </c>
-      <c r="B52" s="20" t="s">
+      <c r="B52" s="18" t="s">
         <v>69</v>
       </c>
       <c r="C52" s="2">
@@ -4665,35 +4758,38 @@
       <c r="D52" s="2">
         <v>12</v>
       </c>
-      <c r="E52" s="20">
+      <c r="E52" s="18">
         <v>-0.1</v>
       </c>
-      <c r="F52" s="13">
+      <c r="F52" s="12">
         <v>0.05</v>
       </c>
       <c r="G52" s="2">
         <v>263</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8">
+      <c r="C53" s="2">
+        <v>16</v>
+      </c>
       <c r="D53" s="2">
         <v>14</v>
       </c>
-      <c r="E53" s="20">
+      <c r="E53" s="18">
         <v>-0.72</v>
       </c>
-      <c r="F53" s="13">
+      <c r="F53" s="12">
         <v>0.03</v>
       </c>
       <c r="G53" s="2">
         <v>792</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8">
       <c r="A54" s="2">
         <v>2012</v>
       </c>
-      <c r="B54" s="20" t="s">
+      <c r="B54" s="18" t="s">
         <v>70</v>
       </c>
       <c r="C54" s="2">
@@ -4702,49 +4798,55 @@
       <c r="D54" s="2">
         <v>7</v>
       </c>
-      <c r="E54" s="20">
+      <c r="E54" s="18">
         <v>0.28000000000000003</v>
       </c>
-      <c r="F54" s="13">
+      <c r="F54" s="12">
         <v>0.11</v>
       </c>
       <c r="G54" s="2">
         <v>44</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8">
+      <c r="C55" s="2">
+        <v>17</v>
+      </c>
       <c r="D55" s="2">
         <v>11</v>
       </c>
-      <c r="E55" s="20">
+      <c r="E55" s="18">
         <v>-0.46</v>
       </c>
-      <c r="F55" s="13">
+      <c r="F55" s="12">
         <v>0.05</v>
       </c>
       <c r="G55" s="2">
         <v>223</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8">
+      <c r="C56" s="2">
+        <v>17</v>
+      </c>
       <c r="D56" s="2">
         <v>11</v>
       </c>
-      <c r="E56" s="20">
+      <c r="E56" s="18">
         <v>-0.52</v>
       </c>
-      <c r="F56" s="13">
+      <c r="F56" s="12">
         <v>0.05</v>
       </c>
       <c r="G56" s="2">
         <v>224</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8">
       <c r="A57" s="2">
         <v>2011</v>
       </c>
-      <c r="B57" s="20" t="s">
+      <c r="B57" s="18" t="s">
         <v>71</v>
       </c>
       <c r="C57" s="2">
@@ -4753,35 +4855,38 @@
       <c r="D57" s="2">
         <v>7</v>
       </c>
-      <c r="E57" s="20">
+      <c r="E57" s="18">
         <v>0.15</v>
       </c>
-      <c r="F57" s="13">
+      <c r="F57" s="12">
         <v>0.06</v>
       </c>
       <c r="G57" s="2">
         <v>177</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8">
+      <c r="C58" s="2">
+        <v>18</v>
+      </c>
       <c r="D58" s="2">
         <v>11</v>
       </c>
-      <c r="E58" s="20">
+      <c r="E58" s="18">
         <v>-0.49</v>
       </c>
-      <c r="F58" s="13">
+      <c r="F58" s="12">
         <v>0.04</v>
       </c>
       <c r="G58" s="2">
         <v>523</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8">
       <c r="A59" s="2">
         <v>2009</v>
       </c>
-      <c r="B59" s="20" t="s">
+      <c r="B59" s="18" t="s">
         <v>72</v>
       </c>
       <c r="C59" s="2">
@@ -4790,63 +4895,72 @@
       <c r="D59" s="2">
         <v>7</v>
       </c>
-      <c r="E59" s="20">
+      <c r="E59" s="18">
         <v>0.13</v>
       </c>
-      <c r="F59" s="13">
+      <c r="F59" s="12">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="G59" s="2">
         <v>179</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8">
+      <c r="C60" s="2">
+        <v>19</v>
+      </c>
       <c r="D60" s="2">
         <v>15</v>
       </c>
-      <c r="E60" s="20">
+      <c r="E60" s="18">
         <v>-0.59</v>
       </c>
-      <c r="F60" s="13">
+      <c r="F60" s="12">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="G60" s="2">
         <v>192</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8">
+      <c r="C61" s="2">
+        <v>19</v>
+      </c>
       <c r="D61" s="2">
         <v>15</v>
       </c>
-      <c r="E61" s="20">
+      <c r="E61" s="18">
         <v>-0.69</v>
       </c>
-      <c r="F61" s="13">
+      <c r="F61" s="12">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="G61" s="2">
         <v>191</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8">
+      <c r="C62" s="2">
+        <v>19</v>
+      </c>
       <c r="D62" s="2">
         <v>15</v>
       </c>
-      <c r="E62" s="20">
+      <c r="E62" s="18">
         <v>-0.57999999999999996</v>
       </c>
-      <c r="F62" s="13">
+      <c r="F62" s="12">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="G62" s="2">
         <v>181</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8">
       <c r="A63" s="2">
         <v>2009</v>
       </c>
-      <c r="B63" s="20" t="s">
+      <c r="B63" s="18" t="s">
         <v>73</v>
       </c>
       <c r="C63" s="2">
@@ -4855,10 +4969,10 @@
       <c r="D63" s="2">
         <v>16</v>
       </c>
-      <c r="E63" s="20">
+      <c r="E63" s="18">
         <v>0.08</v>
       </c>
-      <c r="F63" s="13">
+      <c r="F63" s="12">
         <v>0.17</v>
       </c>
       <c r="G63" s="2">
@@ -4866,39 +4980,45 @@
       </c>
       <c r="H63" s="2"/>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8">
+      <c r="C64" s="2">
+        <v>20</v>
+      </c>
       <c r="D64" s="2">
         <v>17</v>
       </c>
-      <c r="E64" s="20">
+      <c r="E64" s="18">
         <v>-0.54</v>
       </c>
-      <c r="F64" s="13">
+      <c r="F64" s="12">
         <v>0.16</v>
       </c>
       <c r="G64" s="2">
         <v>248</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7">
+      <c r="C65" s="2">
+        <v>20</v>
+      </c>
       <c r="D65" s="2">
         <v>17</v>
       </c>
-      <c r="E65" s="20">
+      <c r="E65" s="18">
         <v>-0.64</v>
       </c>
-      <c r="F65" s="13">
+      <c r="F65" s="12">
         <v>0.19</v>
       </c>
       <c r="G65" s="2">
         <v>253</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7">
       <c r="A66" s="2">
         <v>2012</v>
       </c>
-      <c r="B66" s="20" t="s">
+      <c r="B66" s="18" t="s">
         <v>74</v>
       </c>
       <c r="C66" s="2">
@@ -4907,35 +5027,38 @@
       <c r="D66" s="2">
         <v>7</v>
       </c>
-      <c r="E66" s="20">
+      <c r="E66" s="18">
         <v>-0.53</v>
       </c>
-      <c r="F66" s="13">
+      <c r="F66" s="12">
         <v>8.1000000000000003E-2</v>
       </c>
       <c r="G66" s="2">
         <v>144</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7">
+      <c r="C67" s="2">
+        <v>21</v>
+      </c>
       <c r="D67" s="2">
         <v>15</v>
       </c>
-      <c r="E67" s="20">
+      <c r="E67" s="18">
         <v>-0.88</v>
       </c>
-      <c r="F67" s="13">
+      <c r="F67" s="12">
         <v>7.0999999999999994E-2</v>
       </c>
       <c r="G67" s="2">
         <v>138</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7">
       <c r="A68" s="2">
         <v>2010</v>
       </c>
-      <c r="B68" s="20" t="s">
+      <c r="B68" s="18" t="s">
         <v>75</v>
       </c>
       <c r="C68" s="2">
@@ -4944,35 +5067,38 @@
       <c r="D68" s="2">
         <v>12</v>
       </c>
-      <c r="E68" s="20">
+      <c r="E68" s="18">
         <v>0.8</v>
       </c>
-      <c r="F68" s="13">
+      <c r="F68" s="12">
         <v>3.7999999999999999E-2</v>
       </c>
       <c r="G68" s="2">
         <v>430</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7">
+      <c r="C69" s="2">
+        <v>22</v>
+      </c>
       <c r="D69" s="2">
         <v>15</v>
       </c>
-      <c r="E69" s="20">
+      <c r="E69" s="18">
         <v>0.74</v>
       </c>
-      <c r="F69" s="13">
+      <c r="F69" s="12">
         <v>3.7999999999999999E-2</v>
       </c>
       <c r="G69" s="2">
         <v>428</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7">
       <c r="A70" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B70" s="20" t="s">
+      <c r="B70" s="18" t="s">
         <v>76</v>
       </c>
       <c r="C70" s="2">
@@ -4981,64 +5107,73 @@
       <c r="D70" s="2">
         <v>7</v>
       </c>
-      <c r="E70" s="20">
+      <c r="E70" s="18">
         <v>-1.79</v>
       </c>
-      <c r="F70" s="13">
+      <c r="F70" s="12">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="G70" s="2">
         <v>328</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B71" s="20"/>
+    <row r="71" spans="1:7">
+      <c r="B71" s="18"/>
+      <c r="C71" s="2">
+        <v>23</v>
+      </c>
       <c r="D71" s="2">
         <v>24</v>
       </c>
-      <c r="E71" s="20">
+      <c r="E71" s="18">
         <v>-1.55</v>
       </c>
-      <c r="F71" s="13">
+      <c r="F71" s="12">
         <v>0.08</v>
       </c>
       <c r="G71" s="2">
         <v>335</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7">
+      <c r="C72" s="2">
+        <v>23</v>
+      </c>
       <c r="D72" s="2">
         <v>15</v>
       </c>
-      <c r="E72" s="20">
+      <c r="E72" s="18">
         <v>-2.31</v>
       </c>
-      <c r="F72" s="13">
+      <c r="F72" s="12">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="G72" s="2">
         <v>320</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7">
+      <c r="C73" s="2">
+        <v>23</v>
+      </c>
       <c r="D73" s="2">
         <v>15</v>
       </c>
-      <c r="E73" s="20">
+      <c r="E73" s="18">
         <v>-2.33</v>
       </c>
-      <c r="F73" s="13">
+      <c r="F73" s="12">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="G73" s="2">
         <v>323</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7">
       <c r="A74" s="2">
         <v>2012</v>
       </c>
-      <c r="B74" s="20" t="s">
+      <c r="B74" s="18" t="s">
         <v>77</v>
       </c>
       <c r="C74" s="2">
@@ -5047,35 +5182,38 @@
       <c r="D74" s="2">
         <v>1</v>
       </c>
-      <c r="E74" s="20">
+      <c r="E74" s="18">
         <v>-0.34</v>
       </c>
-      <c r="F74" s="13">
+      <c r="F74" s="12">
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="G74" s="2">
         <v>284</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7">
+      <c r="C75" s="2">
+        <v>24</v>
+      </c>
       <c r="D75" s="2">
         <v>24</v>
       </c>
-      <c r="E75" s="20">
+      <c r="E75" s="18">
         <v>-0.84</v>
       </c>
-      <c r="F75" s="13">
+      <c r="F75" s="12">
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="G75" s="2">
         <v>284</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7">
       <c r="A76" s="2">
         <v>2009</v>
       </c>
-      <c r="B76" s="20" t="s">
+      <c r="B76" s="18" t="s">
         <v>78</v>
       </c>
       <c r="C76" s="2">
@@ -5084,63 +5222,72 @@
       <c r="D76" s="2">
         <v>1</v>
       </c>
-      <c r="E76" s="20">
+      <c r="E76" s="18">
         <v>0.19</v>
       </c>
-      <c r="F76" s="13">
+      <c r="F76" s="12">
         <v>0.1</v>
       </c>
       <c r="G76" s="2">
         <v>95</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7">
+      <c r="C77" s="2">
+        <v>25</v>
+      </c>
       <c r="D77" s="2">
         <v>24</v>
       </c>
-      <c r="E77" s="20">
+      <c r="E77" s="18">
         <v>-0.43</v>
       </c>
-      <c r="F77" s="13">
+      <c r="F77" s="12">
         <v>0.1</v>
       </c>
       <c r="G77" s="2">
         <v>102</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7">
+      <c r="C78" s="2">
+        <v>25</v>
+      </c>
       <c r="D78" s="2">
         <v>24</v>
       </c>
-      <c r="E78" s="20">
+      <c r="E78" s="18">
         <v>-0.46</v>
       </c>
-      <c r="F78" s="13">
+      <c r="F78" s="12">
         <v>0.1</v>
       </c>
       <c r="G78" s="2">
         <v>106</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7">
+      <c r="C79" s="2">
+        <v>25</v>
+      </c>
       <c r="D79" s="2">
         <v>24</v>
       </c>
-      <c r="E79" s="20">
+      <c r="E79" s="18">
         <v>-0.54</v>
       </c>
-      <c r="F79" s="13">
+      <c r="F79" s="12">
         <v>0.1</v>
       </c>
       <c r="G79" s="2">
         <v>98</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7">
       <c r="A80" s="2">
         <v>2011</v>
       </c>
-      <c r="B80" s="20" t="s">
+      <c r="B80" s="18" t="s">
         <v>79</v>
       </c>
       <c r="C80" s="2">
@@ -5149,35 +5296,38 @@
       <c r="D80" s="2">
         <v>7</v>
       </c>
-      <c r="E80" s="20">
+      <c r="E80" s="18">
         <v>-0.37</v>
       </c>
-      <c r="F80" s="13">
+      <c r="F80" s="12">
         <v>0.107</v>
       </c>
       <c r="G80" s="2">
         <v>287</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8">
+      <c r="C81" s="2">
+        <v>26</v>
+      </c>
       <c r="D81" s="2">
         <v>15</v>
       </c>
-      <c r="E81" s="20">
+      <c r="E81" s="18">
         <v>-0.78</v>
       </c>
-      <c r="F81" s="13">
+      <c r="F81" s="12">
         <v>0.107</v>
       </c>
       <c r="G81" s="2">
         <v>283</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8">
       <c r="A82" s="2">
         <v>2010</v>
       </c>
-      <c r="B82" s="20" t="s">
+      <c r="B82" s="18" t="s">
         <v>80</v>
       </c>
       <c r="C82" s="2">
@@ -5186,35 +5336,38 @@
       <c r="D82" s="2">
         <v>7</v>
       </c>
-      <c r="E82" s="20">
+      <c r="E82" s="18">
         <v>-0.1</v>
       </c>
-      <c r="F82" s="13">
+      <c r="F82" s="12">
         <v>1.22</v>
       </c>
       <c r="G82" s="2">
         <v>12</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8">
+      <c r="C83" s="2">
+        <v>27</v>
+      </c>
       <c r="D83" s="2">
         <v>18</v>
       </c>
-      <c r="E83" s="20">
+      <c r="E83" s="18">
         <v>-1</v>
       </c>
-      <c r="F83" s="13">
+      <c r="F83" s="12">
         <v>0.43</v>
       </c>
       <c r="G83" s="2">
         <v>12</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8">
       <c r="A84" s="2">
         <v>2011</v>
       </c>
-      <c r="B84" s="20" t="s">
+      <c r="B84" s="18" t="s">
         <v>81</v>
       </c>
       <c r="C84" s="2">
@@ -5223,35 +5376,38 @@
       <c r="D84" s="2">
         <v>12</v>
       </c>
-      <c r="E84" s="20">
+      <c r="E84" s="18">
         <v>-0.54</v>
       </c>
-      <c r="F84" s="13">
+      <c r="F84" s="12">
         <v>4.2999999999999997E-2</v>
       </c>
       <c r="G84" s="2">
         <v>519</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8">
+      <c r="C85" s="2">
+        <v>28</v>
+      </c>
       <c r="D85" s="2">
         <v>18</v>
       </c>
-      <c r="E85" s="20">
+      <c r="E85" s="18">
         <v>-0.47</v>
       </c>
-      <c r="F85" s="13">
+      <c r="F85" s="12">
         <v>4.0800000000000003E-2</v>
       </c>
       <c r="G85" s="2">
         <v>516</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8">
       <c r="A86" s="2">
         <v>2010</v>
       </c>
-      <c r="B86" s="20" t="s">
+      <c r="B86" s="18" t="s">
         <v>82</v>
       </c>
       <c r="C86" s="2">
@@ -5260,10 +5416,10 @@
       <c r="D86" s="2">
         <v>19</v>
       </c>
-      <c r="E86" s="20">
+      <c r="E86" s="18">
         <v>-1.23</v>
       </c>
-      <c r="F86" s="13">
+      <c r="F86" s="12">
         <v>0.316</v>
       </c>
       <c r="G86" s="2">
@@ -5271,39 +5427,45 @@
       </c>
       <c r="H86" s="2"/>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8">
+      <c r="C87" s="2">
+        <v>29</v>
+      </c>
       <c r="D87" s="2">
         <v>20</v>
       </c>
-      <c r="E87" s="20">
+      <c r="E87" s="18">
         <v>-1.8</v>
       </c>
-      <c r="F87" s="13">
+      <c r="F87" s="12">
         <v>0.46300000000000002</v>
       </c>
       <c r="G87" s="2">
         <v>16</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8">
+      <c r="C88" s="2">
+        <v>29</v>
+      </c>
       <c r="D88" s="2">
         <v>21</v>
       </c>
-      <c r="E88" s="20">
+      <c r="E88" s="18">
         <v>-1.49</v>
       </c>
-      <c r="F88" s="13">
+      <c r="F88" s="12">
         <v>0.38300000000000001</v>
       </c>
       <c r="G88" s="2">
         <v>16</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8">
       <c r="A89" s="2">
         <v>2006</v>
       </c>
-      <c r="B89" s="20" t="s">
+      <c r="B89" s="18" t="s">
         <v>83</v>
       </c>
       <c r="C89" s="2">
@@ -5312,49 +5474,55 @@
       <c r="D89" s="2">
         <v>1</v>
       </c>
-      <c r="E89" s="20">
+      <c r="E89" s="18">
         <v>0.18</v>
       </c>
-      <c r="F89" s="13">
+      <c r="F89" s="12">
         <v>6.0999999999999999E-2</v>
       </c>
       <c r="G89" s="2">
         <v>253</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8">
+      <c r="C90" s="2">
+        <v>30</v>
+      </c>
       <c r="D90" s="2">
         <v>23</v>
       </c>
-      <c r="E90" s="20">
+      <c r="E90" s="18">
         <v>-0.61</v>
       </c>
-      <c r="F90" s="13">
+      <c r="F90" s="12">
         <v>6.3E-2</v>
       </c>
       <c r="G90" s="2">
         <v>238</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8">
+      <c r="C91" s="2">
+        <v>30</v>
+      </c>
       <c r="D91" s="2">
         <v>23</v>
       </c>
-      <c r="E91" s="20">
+      <c r="E91" s="18">
         <v>-0.76</v>
       </c>
-      <c r="F91" s="13">
+      <c r="F91" s="12">
         <v>6.0999999999999999E-2</v>
       </c>
       <c r="G91" s="2">
         <v>250</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8">
       <c r="A92" s="2">
         <v>2012</v>
       </c>
-      <c r="B92" s="20" t="s">
+      <c r="B92" s="18" t="s">
         <v>84</v>
       </c>
       <c r="C92" s="2">
@@ -5363,35 +5531,38 @@
       <c r="D92" s="2">
         <v>22</v>
       </c>
-      <c r="E92" s="20">
+      <c r="E92" s="18">
         <v>-1.72</v>
       </c>
-      <c r="F92" s="13">
+      <c r="F92" s="12">
         <v>0.06</v>
       </c>
       <c r="G92" s="2">
         <v>227</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8">
+      <c r="C93" s="2">
+        <v>31</v>
+      </c>
       <c r="D93" s="2">
         <v>23</v>
       </c>
-      <c r="E93" s="20">
+      <c r="E93" s="18">
         <v>-1.1299999999999999</v>
       </c>
-      <c r="F93" s="13">
+      <c r="F93" s="12">
         <v>0.06</v>
       </c>
       <c r="G93" s="2">
         <v>256</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8">
       <c r="A94" s="2">
         <v>2011</v>
       </c>
-      <c r="B94" s="20" t="s">
+      <c r="B94" s="18" t="s">
         <v>85</v>
       </c>
       <c r="C94" s="2">
@@ -5400,35 +5571,38 @@
       <c r="D94" s="2">
         <v>1</v>
       </c>
-      <c r="E94" s="20">
+      <c r="E94" s="18">
         <v>0.2</v>
       </c>
-      <c r="F94" s="20">
+      <c r="F94" s="18">
         <v>0.127</v>
       </c>
       <c r="G94" s="2">
         <v>104</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8">
+      <c r="C95" s="2">
+        <v>32</v>
+      </c>
       <c r="D95" s="2">
         <v>23</v>
       </c>
-      <c r="E95" s="20">
+      <c r="E95" s="18">
         <v>-0.5</v>
       </c>
-      <c r="F95" s="20">
+      <c r="F95" s="18">
         <v>0.127</v>
       </c>
       <c r="G95" s="2">
         <v>102</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8">
       <c r="A96" s="2">
         <v>2010</v>
       </c>
-      <c r="B96" s="20" t="s">
+      <c r="B96" s="18" t="s">
         <v>86</v>
       </c>
       <c r="C96" s="2">
@@ -5437,10 +5611,10 @@
       <c r="D96" s="2">
         <v>25</v>
       </c>
-      <c r="E96" s="20">
+      <c r="E96" s="18">
         <v>-1.5</v>
       </c>
-      <c r="F96" s="13">
+      <c r="F96" s="12">
         <v>7.6999999999999999E-2</v>
       </c>
       <c r="G96" s="2">
@@ -5448,39 +5622,45 @@
       </c>
       <c r="H96" s="2"/>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7">
+      <c r="C97" s="2">
+        <v>33</v>
+      </c>
       <c r="D97" s="2">
         <v>18</v>
       </c>
-      <c r="E97" s="20">
+      <c r="E97" s="18">
         <v>-0.9</v>
       </c>
-      <c r="F97" s="13">
+      <c r="F97" s="12">
         <v>0.10199999999999999</v>
       </c>
       <c r="G97" s="2">
         <v>166</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7">
+      <c r="C98" s="2">
+        <v>33</v>
+      </c>
       <c r="D98" s="2">
         <v>3</v>
       </c>
-      <c r="E98" s="20">
+      <c r="E98" s="18">
         <v>-1.2</v>
       </c>
-      <c r="F98" s="13">
+      <c r="F98" s="12">
         <v>0.10199999999999999</v>
       </c>
       <c r="G98" s="2">
         <v>165</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7">
       <c r="A99" s="2">
         <v>2006</v>
       </c>
-      <c r="B99" s="20" t="s">
+      <c r="B99" s="18" t="s">
         <v>87</v>
       </c>
       <c r="C99" s="2">
@@ -5489,35 +5669,38 @@
       <c r="D99" s="2">
         <v>7</v>
       </c>
-      <c r="E99" s="20">
+      <c r="E99" s="18">
         <v>-0.02</v>
       </c>
-      <c r="F99" s="13">
+      <c r="F99" s="12">
         <v>6.3E-2</v>
       </c>
       <c r="G99" s="2">
         <v>224</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7">
+      <c r="C100" s="2">
+        <v>34</v>
+      </c>
       <c r="D100" s="2">
         <v>18</v>
       </c>
-      <c r="E100" s="20">
+      <c r="E100" s="18">
         <v>-0.67</v>
       </c>
-      <c r="F100" s="13">
+      <c r="F100" s="12">
         <v>5.0999999999999997E-2</v>
       </c>
       <c r="G100" s="2">
         <v>454</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7">
       <c r="A101" s="2">
         <v>2012</v>
       </c>
-      <c r="B101" s="20" t="s">
+      <c r="B101" s="18" t="s">
         <v>88</v>
       </c>
       <c r="C101" s="2">
@@ -5526,35 +5709,38 @@
       <c r="D101" s="2">
         <v>7</v>
       </c>
-      <c r="E101" s="20">
+      <c r="E101" s="18">
         <v>-0.7</v>
       </c>
-      <c r="F101" s="13">
+      <c r="F101" s="12">
         <v>0.21</v>
       </c>
       <c r="G101" s="2">
         <v>87</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7">
+      <c r="C102" s="2">
+        <v>35</v>
+      </c>
       <c r="D102" s="2">
         <v>18</v>
       </c>
-      <c r="E102" s="20">
+      <c r="E102" s="18">
         <v>-1.4</v>
       </c>
-      <c r="F102" s="13">
+      <c r="F102" s="12">
         <v>0.21</v>
       </c>
       <c r="G102" s="2">
         <v>91</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7">
       <c r="A103" s="2">
         <v>2010</v>
       </c>
-      <c r="B103" s="20" t="s">
+      <c r="B103" s="18" t="s">
         <v>89</v>
       </c>
       <c r="C103" s="2">
@@ -5563,35 +5749,38 @@
       <c r="D103" s="2">
         <v>3</v>
       </c>
-      <c r="E103" s="20">
+      <c r="E103" s="18">
         <v>-1.4</v>
       </c>
-      <c r="F103" s="13">
+      <c r="F103" s="12">
         <v>0.54</v>
       </c>
       <c r="G103" s="2">
         <v>76</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7">
+      <c r="C104" s="2">
+        <v>36</v>
+      </c>
       <c r="D104" s="2">
         <v>26</v>
       </c>
-      <c r="E104" s="20">
+      <c r="E104" s="18">
         <v>-1.4</v>
       </c>
-      <c r="F104" s="13">
+      <c r="F104" s="12">
         <v>0.54</v>
       </c>
       <c r="G104" s="2">
         <v>75</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7">
       <c r="A105" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B105" s="20" t="s">
+      <c r="B105" s="18" t="s">
         <v>90</v>
       </c>
       <c r="C105" s="2">
@@ -5600,91 +5789,106 @@
       <c r="D105" s="2">
         <v>1</v>
       </c>
-      <c r="E105" s="20">
+      <c r="E105" s="18">
         <v>0.17</v>
       </c>
-      <c r="F105" s="13">
+      <c r="F105" s="12">
         <v>8.4000000000000005E-2</v>
       </c>
       <c r="G105" s="2">
         <v>176</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7">
+      <c r="C106" s="2">
+        <v>37</v>
+      </c>
       <c r="D106" s="2">
         <v>23</v>
       </c>
-      <c r="E106" s="20">
+      <c r="E106" s="18">
         <v>-0.66</v>
       </c>
-      <c r="F106" s="13">
+      <c r="F106" s="12">
         <v>8.4000000000000005E-2</v>
       </c>
       <c r="G106" s="2">
         <v>179</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7">
+      <c r="C107" s="2">
+        <v>37</v>
+      </c>
       <c r="D107" s="2">
         <v>7</v>
       </c>
-      <c r="E107" s="20">
+      <c r="E107" s="18">
         <v>-0.82</v>
       </c>
-      <c r="F107" s="13">
+      <c r="F107" s="12">
         <v>8.1000000000000003E-2</v>
       </c>
       <c r="G107" s="2">
         <v>182</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7">
+      <c r="C108" s="2">
+        <v>37</v>
+      </c>
       <c r="D108" s="2">
         <v>7</v>
       </c>
-      <c r="E108" s="20">
+      <c r="E108" s="18">
         <v>-1.1299999999999999</v>
       </c>
-      <c r="F108" s="13">
+      <c r="F108" s="12">
         <v>8.1000000000000003E-2</v>
       </c>
       <c r="G108" s="2">
         <v>182</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7">
+      <c r="C109" s="2">
+        <v>37</v>
+      </c>
       <c r="D109" s="2">
         <v>18</v>
       </c>
-      <c r="E109" s="20">
+      <c r="E109" s="18">
         <v>-1.4</v>
       </c>
-      <c r="F109" s="13">
+      <c r="F109" s="12">
         <v>8.1000000000000003E-2</v>
       </c>
       <c r="G109" s="2">
         <v>190</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7">
+      <c r="C110" s="2">
+        <v>37</v>
+      </c>
       <c r="D110" s="2">
         <v>18</v>
       </c>
-      <c r="E110" s="20">
+      <c r="E110" s="18">
         <v>-1.9</v>
       </c>
-      <c r="F110" s="13">
+      <c r="F110" s="12">
         <v>8.1000000000000003E-2</v>
       </c>
       <c r="G110" s="2">
         <v>182</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7">
       <c r="A111" s="2">
         <v>2007</v>
       </c>
-      <c r="B111" s="20" t="s">
+      <c r="B111" s="18" t="s">
         <v>91</v>
       </c>
       <c r="C111" s="2">
@@ -5693,77 +5897,89 @@
       <c r="D111" s="2">
         <v>1</v>
       </c>
-      <c r="E111" s="20">
+      <c r="E111" s="18">
         <v>0.12</v>
       </c>
-      <c r="F111" s="13">
+      <c r="F111" s="12">
         <v>7.0999999999999994E-2</v>
       </c>
       <c r="G111" s="2">
         <v>111</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7">
+      <c r="C112" s="2">
+        <v>38</v>
+      </c>
       <c r="D112" s="2">
         <v>23</v>
       </c>
-      <c r="E112" s="20">
+      <c r="E112" s="18">
         <v>-0.28000000000000003</v>
       </c>
-      <c r="F112" s="20">
+      <c r="F112" s="18">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="G112" s="2">
         <v>111</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8">
+      <c r="C113" s="2">
+        <v>38</v>
+      </c>
       <c r="D113" s="2">
         <v>23</v>
       </c>
-      <c r="E113" s="20">
+      <c r="E113" s="18">
         <v>-0.44</v>
       </c>
-      <c r="F113" s="13">
+      <c r="F113" s="12">
         <v>7.0999999999999994E-2</v>
       </c>
       <c r="G113" s="2">
         <v>112</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8">
+      <c r="C114" s="2">
+        <v>38</v>
+      </c>
       <c r="D114" s="2">
         <v>23</v>
       </c>
-      <c r="E114" s="20">
+      <c r="E114" s="18">
         <v>-0.44</v>
       </c>
-      <c r="F114" s="13">
+      <c r="F114" s="12">
         <v>7.0999999999999994E-2</v>
       </c>
       <c r="G114" s="2">
         <v>110</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8">
+      <c r="C115" s="2">
+        <v>38</v>
+      </c>
       <c r="D115" s="2">
         <v>23</v>
       </c>
-      <c r="E115" s="20">
+      <c r="E115" s="18">
         <v>-0.43</v>
       </c>
-      <c r="F115" s="13">
+      <c r="F115" s="12">
         <v>6.8000000000000005E-2</v>
       </c>
       <c r="G115" s="2">
         <v>111</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8">
       <c r="A116" s="2">
         <v>2007</v>
       </c>
-      <c r="B116" s="20" t="s">
+      <c r="B116" s="18" t="s">
         <v>92</v>
       </c>
       <c r="C116" s="2">
@@ -5772,10 +5988,10 @@
       <c r="D116" s="2">
         <v>16</v>
       </c>
-      <c r="E116" s="20">
+      <c r="E116" s="18">
         <v>0.27</v>
       </c>
-      <c r="F116" s="13">
+      <c r="F116" s="12">
         <v>9.1999999999999998E-2</v>
       </c>
       <c r="G116" s="2">
@@ -5783,53 +5999,62 @@
       </c>
       <c r="H116" s="2"/>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8">
+      <c r="C117" s="2">
+        <v>39</v>
+      </c>
       <c r="D117" s="2">
         <v>12</v>
       </c>
-      <c r="E117" s="20">
+      <c r="E117" s="18">
         <v>0.3</v>
       </c>
-      <c r="F117" s="13">
+      <c r="F117" s="12">
         <v>7.5999999999999998E-2</v>
       </c>
       <c r="G117" s="2">
         <v>116</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8">
+      <c r="C118" s="2">
+        <v>39</v>
+      </c>
       <c r="D118" s="2">
         <v>27</v>
       </c>
-      <c r="E118" s="20">
+      <c r="E118" s="18">
         <v>-0.3</v>
       </c>
-      <c r="F118" s="13">
+      <c r="F118" s="12">
         <v>9.1999999999999998E-2</v>
       </c>
       <c r="G118" s="2">
         <v>106</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8">
+      <c r="C119" s="2">
+        <v>39</v>
+      </c>
       <c r="D119" s="2">
         <v>28</v>
       </c>
-      <c r="E119" s="20">
+      <c r="E119" s="18">
         <v>-0.59</v>
       </c>
-      <c r="F119" s="13">
+      <c r="F119" s="12">
         <v>7.5999999999999998E-2</v>
       </c>
       <c r="G119" s="2">
         <v>113</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8">
       <c r="A120" s="2">
         <v>2012</v>
       </c>
-      <c r="B120" s="20" t="s">
+      <c r="B120" s="18" t="s">
         <v>93</v>
       </c>
       <c r="C120" s="2">
@@ -5838,35 +6063,38 @@
       <c r="D120" s="2">
         <v>29</v>
       </c>
-      <c r="E120" s="20">
+      <c r="E120" s="18">
         <v>-0.22</v>
       </c>
-      <c r="F120" s="13">
+      <c r="F120" s="12">
         <v>0.11</v>
       </c>
       <c r="G120" s="2">
         <v>63</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8">
+      <c r="C121" s="2">
+        <v>40</v>
+      </c>
       <c r="D121" s="2">
         <v>30</v>
       </c>
-      <c r="E121" s="20">
+      <c r="E121" s="18">
         <v>-0.63</v>
       </c>
-      <c r="F121" s="13">
+      <c r="F121" s="12">
         <v>0.19</v>
       </c>
       <c r="G121" s="2">
         <v>61</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8">
       <c r="A122" s="2">
         <v>2010</v>
       </c>
-      <c r="B122" s="20" t="s">
+      <c r="B122" s="18" t="s">
         <v>94</v>
       </c>
       <c r="C122" s="2">
@@ -5875,35 +6103,38 @@
       <c r="D122" s="2">
         <v>9</v>
       </c>
-      <c r="E122" s="20">
+      <c r="E122" s="18">
         <v>-0.3</v>
       </c>
-      <c r="F122" s="13">
+      <c r="F122" s="12">
         <v>5.0999999999999997E-2</v>
       </c>
       <c r="G122" s="2">
         <v>156</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8">
+      <c r="C123" s="2">
+        <v>41</v>
+      </c>
       <c r="D123" s="2">
         <v>23</v>
       </c>
-      <c r="E123" s="20">
+      <c r="E123" s="18">
         <v>-0.7</v>
       </c>
-      <c r="F123" s="13">
+      <c r="F123" s="12">
         <v>5.0999999999999997E-2</v>
       </c>
       <c r="G123" s="2">
         <v>163</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8">
       <c r="A124" s="2">
         <v>2007</v>
       </c>
-      <c r="B124" s="20" t="s">
+      <c r="B124" s="18" t="s">
         <v>95</v>
       </c>
       <c r="C124" s="2">
@@ -5912,35 +6143,38 @@
       <c r="D124" s="2">
         <v>12</v>
       </c>
-      <c r="E124" s="20">
+      <c r="E124" s="18">
         <v>-0.67</v>
       </c>
-      <c r="F124" s="13">
+      <c r="F124" s="12">
         <v>0.40799999999999997</v>
       </c>
       <c r="G124" s="2">
         <v>584</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8">
+      <c r="C125" s="2">
+        <v>42</v>
+      </c>
       <c r="D125" s="2">
         <v>18</v>
       </c>
-      <c r="E125" s="20">
+      <c r="E125" s="18">
         <v>-0.67</v>
       </c>
-      <c r="F125" s="13">
+      <c r="F125" s="12">
         <v>0.40799999999999997</v>
       </c>
       <c r="G125" s="2">
         <v>588</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8">
       <c r="A126" s="2">
         <v>2008</v>
       </c>
-      <c r="B126" s="20" t="s">
+      <c r="B126" s="18" t="s">
         <v>96</v>
       </c>
       <c r="C126" s="2">
@@ -5949,35 +6183,38 @@
       <c r="D126" s="2">
         <v>1</v>
       </c>
-      <c r="E126" s="20">
+      <c r="E126" s="18">
         <v>0.41</v>
       </c>
-      <c r="F126" s="13">
+      <c r="F126" s="12">
         <v>7.6999999999999999E-2</v>
       </c>
       <c r="G126" s="2">
         <v>76</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8">
+      <c r="C127" s="2">
+        <v>43</v>
+      </c>
       <c r="D127" s="2">
         <v>23</v>
       </c>
-      <c r="E127" s="20">
+      <c r="E127" s="18">
         <v>-0.65</v>
       </c>
-      <c r="F127" s="13">
+      <c r="F127" s="12">
         <v>7.6999999999999999E-2</v>
       </c>
       <c r="G127" s="2">
         <v>75</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8">
       <c r="A128" s="2">
         <v>2011</v>
       </c>
-      <c r="B128" s="20" t="s">
+      <c r="B128" s="18" t="s">
         <v>97</v>
       </c>
       <c r="C128" s="2">
@@ -5986,35 +6223,38 @@
       <c r="D128" s="4">
         <v>5</v>
       </c>
-      <c r="E128" s="20">
+      <c r="E128" s="18">
         <v>-0.9</v>
       </c>
-      <c r="F128" s="20">
+      <c r="F128" s="18">
         <v>7.5999999999999998E-2</v>
       </c>
       <c r="G128" s="2">
         <v>248</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8">
+      <c r="C129" s="2">
+        <v>44</v>
+      </c>
       <c r="D129" s="2">
         <v>23</v>
       </c>
-      <c r="E129" s="20">
+      <c r="E129" s="18">
         <v>-1</v>
       </c>
-      <c r="F129" s="20">
+      <c r="F129" s="18">
         <v>7.5999999999999998E-2</v>
       </c>
       <c r="G129" s="2">
         <v>244</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8">
       <c r="A130" s="2">
         <v>2010</v>
       </c>
-      <c r="B130" s="20" t="s">
+      <c r="B130" s="18" t="s">
         <v>98</v>
       </c>
       <c r="C130" s="2">
@@ -6023,10 +6263,10 @@
       <c r="D130" s="2">
         <v>18</v>
       </c>
-      <c r="E130" s="20">
+      <c r="E130" s="18">
         <v>-0.9</v>
       </c>
-      <c r="F130" s="13">
+      <c r="F130" s="12">
         <v>6.6000000000000003E-2</v>
       </c>
       <c r="G130" s="2">
@@ -6034,39 +6274,45 @@
       </c>
       <c r="H130" s="2"/>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8">
+      <c r="C131" s="2">
+        <v>45</v>
+      </c>
       <c r="D131" s="2">
         <v>31</v>
       </c>
-      <c r="E131" s="20">
+      <c r="E131" s="18">
         <v>-1.24</v>
       </c>
-      <c r="F131" s="13">
+      <c r="F131" s="12">
         <v>6.6000000000000003E-2</v>
       </c>
       <c r="G131" s="2">
         <v>225</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8">
+      <c r="C132" s="2">
+        <v>45</v>
+      </c>
       <c r="D132" s="2">
         <v>31</v>
       </c>
-      <c r="E132" s="20">
+      <c r="E132" s="18">
         <v>-1.5</v>
       </c>
-      <c r="F132" s="13">
+      <c r="F132" s="12">
         <v>6.6000000000000003E-2</v>
       </c>
       <c r="G132" s="2">
         <v>221</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8">
       <c r="A133" s="2">
         <v>2008</v>
       </c>
-      <c r="B133" s="20" t="s">
+      <c r="B133" s="18" t="s">
         <v>99</v>
       </c>
       <c r="C133" s="2">
@@ -6078,32 +6324,35 @@
       <c r="E133" s="2">
         <v>0</v>
       </c>
-      <c r="F133" s="13">
+      <c r="F133" s="12">
         <v>0.128</v>
       </c>
       <c r="G133" s="2">
         <v>94</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8">
+      <c r="C134" s="2">
+        <v>46</v>
+      </c>
       <c r="D134" s="2">
         <v>18</v>
       </c>
       <c r="E134" s="2">
         <v>-1</v>
       </c>
-      <c r="F134" s="13">
+      <c r="F134" s="12">
         <v>0.10199999999999999</v>
       </c>
       <c r="G134" s="2">
         <v>96</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8">
       <c r="A135" s="2">
         <v>2011</v>
       </c>
-      <c r="B135" s="20" t="s">
+      <c r="B135" s="18" t="s">
         <v>100</v>
       </c>
       <c r="C135" s="2">
@@ -6112,35 +6361,38 @@
       <c r="D135" s="2">
         <v>7</v>
       </c>
-      <c r="E135" s="20">
+      <c r="E135" s="18">
         <v>-1.8</v>
       </c>
-      <c r="F135" s="13">
+      <c r="F135" s="12">
         <v>7.5999999999999998E-2</v>
       </c>
       <c r="G135" s="2">
         <v>621</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:8">
+      <c r="C136" s="2">
+        <v>47</v>
+      </c>
       <c r="D136" s="2">
         <v>18</v>
       </c>
-      <c r="E136" s="20">
+      <c r="E136" s="18">
         <v>-2.4</v>
       </c>
-      <c r="F136" s="13">
+      <c r="F136" s="12">
         <v>7.5999999999999998E-2</v>
       </c>
       <c r="G136" s="2">
         <v>625</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:8">
       <c r="A137" s="2">
         <v>2012</v>
       </c>
-      <c r="B137" s="20" t="s">
+      <c r="B137" s="18" t="s">
         <v>101</v>
       </c>
       <c r="C137" s="2">
@@ -6149,10 +6401,10 @@
       <c r="D137" s="2">
         <v>32</v>
       </c>
-      <c r="E137" s="20">
+      <c r="E137" s="18">
         <v>-1.53</v>
       </c>
-      <c r="F137" s="13">
+      <c r="F137" s="12">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="G137" s="2">
@@ -6160,53 +6412,62 @@
       </c>
       <c r="H137" s="2"/>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:8">
+      <c r="C138" s="2">
+        <v>48</v>
+      </c>
       <c r="D138" s="2">
         <v>7</v>
       </c>
-      <c r="E138" s="20">
+      <c r="E138" s="18">
         <v>-1.48</v>
       </c>
-      <c r="F138" s="13">
+      <c r="F138" s="12">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="G138" s="2">
         <v>246</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8">
+      <c r="C139" s="2">
+        <v>48</v>
+      </c>
       <c r="D139" s="4">
         <v>5</v>
       </c>
-      <c r="E139" s="20">
+      <c r="E139" s="18">
         <v>-1.63</v>
       </c>
-      <c r="F139" s="13">
+      <c r="F139" s="12">
         <v>0.08</v>
       </c>
       <c r="G139" s="2">
         <v>163</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8">
+      <c r="C140" s="2">
+        <v>48</v>
+      </c>
       <c r="D140" s="2">
         <v>23</v>
       </c>
-      <c r="E140" s="20">
+      <c r="E140" s="18">
         <v>-1.1499999999999999</v>
       </c>
-      <c r="F140" s="13">
+      <c r="F140" s="12">
         <v>0.08</v>
       </c>
       <c r="G140" s="2">
         <v>163</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:8">
       <c r="A141" s="2">
         <v>2010</v>
       </c>
-      <c r="B141" s="20" t="s">
+      <c r="B141" s="18" t="s">
         <v>102</v>
       </c>
       <c r="C141" s="2">
@@ -6215,35 +6476,38 @@
       <c r="D141" s="2">
         <v>15</v>
       </c>
-      <c r="E141" s="20">
+      <c r="E141" s="18">
         <v>-0.52</v>
       </c>
-      <c r="F141" s="13">
+      <c r="F141" s="12">
         <v>3.9E-2</v>
       </c>
       <c r="G141" s="2">
         <v>403</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:8">
+      <c r="C142" s="2">
+        <v>49</v>
+      </c>
       <c r="D142" s="2">
         <v>18</v>
       </c>
-      <c r="E142" s="20">
+      <c r="E142" s="18">
         <v>-0.62</v>
       </c>
-      <c r="F142" s="13">
+      <c r="F142" s="12">
         <v>3.7999999999999999E-2</v>
       </c>
       <c r="G142" s="2">
         <v>398</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:8">
       <c r="A143" s="2">
         <v>2008</v>
       </c>
-      <c r="B143" s="20" t="s">
+      <c r="B143" s="18" t="s">
         <v>103</v>
       </c>
       <c r="C143" s="2">
@@ -6252,35 +6516,38 @@
       <c r="D143" s="2">
         <v>7</v>
       </c>
-      <c r="E143" s="20">
+      <c r="E143" s="18">
         <v>-0.22</v>
       </c>
-      <c r="F143" s="13">
+      <c r="F143" s="12">
         <v>7.0999999999999994E-2</v>
       </c>
       <c r="G143" s="2">
         <v>92</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:8">
+      <c r="C144" s="2">
+        <v>50</v>
+      </c>
       <c r="D144" s="2">
         <v>18</v>
       </c>
-      <c r="E144" s="20">
+      <c r="E144" s="18">
         <v>-0.73</v>
       </c>
-      <c r="F144" s="13">
+      <c r="F144" s="12">
         <v>6.8000000000000005E-2</v>
       </c>
       <c r="G144" s="2">
         <v>94</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7">
       <c r="A145" s="2">
         <v>2012</v>
       </c>
-      <c r="B145" s="20" t="s">
+      <c r="B145" s="18" t="s">
         <v>104</v>
       </c>
       <c r="C145" s="2">
@@ -6289,35 +6556,38 @@
       <c r="D145" s="2">
         <v>12</v>
       </c>
-      <c r="E145" s="20">
+      <c r="E145" s="18">
         <v>-1.1719999999999999</v>
       </c>
-      <c r="F145" s="13">
+      <c r="F145" s="12">
         <v>0.05</v>
       </c>
       <c r="G145" s="2">
         <v>25</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7">
+      <c r="C146" s="2">
+        <v>51</v>
+      </c>
       <c r="D146" s="2">
         <v>18</v>
       </c>
-      <c r="E146" s="20">
+      <c r="E146" s="18">
         <v>-0.63600000000000001</v>
       </c>
-      <c r="F146" s="13">
+      <c r="F146" s="12">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="G146" s="2">
         <v>25</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7">
       <c r="A147" s="2">
         <v>2011</v>
       </c>
-      <c r="B147" s="20" t="s">
+      <c r="B147" s="18" t="s">
         <v>105</v>
       </c>
       <c r="C147" s="2">
@@ -6326,35 +6596,38 @@
       <c r="D147" s="2">
         <v>16</v>
       </c>
-      <c r="E147" s="20">
+      <c r="E147" s="18">
         <v>0.3</v>
       </c>
-      <c r="F147" s="13">
+      <c r="F147" s="12">
         <v>0.10199999999999999</v>
       </c>
       <c r="G147" s="2">
         <v>67</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7">
+      <c r="C148" s="2">
+        <v>52</v>
+      </c>
       <c r="D148" s="2">
         <v>27</v>
       </c>
-      <c r="E148" s="20">
+      <c r="E148" s="18">
         <v>-0.5</v>
       </c>
-      <c r="F148" s="13">
+      <c r="F148" s="12">
         <v>0.10199999999999999</v>
       </c>
       <c r="G148" s="2">
         <v>71</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7">
       <c r="A149" s="2">
         <v>2012</v>
       </c>
-      <c r="B149" s="20" t="s">
+      <c r="B149" s="18" t="s">
         <v>106</v>
       </c>
       <c r="C149" s="2">
@@ -6363,35 +6636,38 @@
       <c r="D149" s="4">
         <v>5</v>
       </c>
-      <c r="E149" s="20">
+      <c r="E149" s="18">
         <v>-1.4</v>
       </c>
-      <c r="F149" s="13">
+      <c r="F149" s="12">
         <v>5.0999999999999997E-2</v>
       </c>
       <c r="G149" s="2">
         <v>256</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7">
+      <c r="C150" s="2">
+        <v>53</v>
+      </c>
       <c r="D150" s="2">
         <v>18</v>
       </c>
-      <c r="E150" s="20">
+      <c r="E150" s="18">
         <v>-1.9</v>
       </c>
-      <c r="F150" s="13">
+      <c r="F150" s="12">
         <v>7.5999999999999998E-2</v>
       </c>
       <c r="G150" s="2">
         <v>261</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7">
       <c r="A151" s="2">
         <v>2011</v>
       </c>
-      <c r="B151" s="20" t="s">
+      <c r="B151" s="18" t="s">
         <v>107</v>
       </c>
       <c r="C151" s="2">
@@ -6400,35 +6676,38 @@
       <c r="D151" s="4">
         <v>5</v>
       </c>
-      <c r="E151" s="20">
+      <c r="E151" s="18">
         <v>-1.5</v>
       </c>
-      <c r="F151" s="13">
+      <c r="F151" s="12">
         <v>0.10199999999999999</v>
       </c>
       <c r="G151" s="2">
         <v>259</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7">
+      <c r="C152" s="2">
+        <v>54</v>
+      </c>
       <c r="D152" s="2">
         <v>33</v>
       </c>
-      <c r="E152" s="20">
+      <c r="E152" s="18">
         <v>-2.4</v>
       </c>
-      <c r="F152" s="13">
+      <c r="F152" s="12">
         <v>0.10199999999999999</v>
       </c>
       <c r="G152" s="2">
         <v>261</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7">
       <c r="A153" s="2">
         <v>2009</v>
       </c>
-      <c r="B153" s="20" t="s">
+      <c r="B153" s="18" t="s">
         <v>108</v>
       </c>
       <c r="C153" s="2">
@@ -6437,35 +6716,38 @@
       <c r="D153" s="2">
         <v>41</v>
       </c>
-      <c r="E153" s="20">
+      <c r="E153" s="18">
         <v>-0.68</v>
       </c>
-      <c r="F153" s="13">
+      <c r="F153" s="12">
         <v>0.02</v>
       </c>
       <c r="G153" s="2">
         <v>1776</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7">
+      <c r="C154" s="2">
+        <v>55</v>
+      </c>
       <c r="D154" s="2">
         <v>35</v>
       </c>
-      <c r="E154" s="20">
+      <c r="E154" s="18">
         <v>-0.56999999999999995</v>
       </c>
-      <c r="F154" s="13">
+      <c r="F154" s="12">
         <v>0.03</v>
       </c>
       <c r="G154" s="2">
         <v>888</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7">
       <c r="A155" s="2">
         <v>2008</v>
       </c>
-      <c r="B155" s="20" t="s">
+      <c r="B155" s="18" t="s">
         <v>109</v>
       </c>
       <c r="C155" s="2">
@@ -6474,35 +6756,38 @@
       <c r="D155" s="4">
         <v>5</v>
       </c>
-      <c r="E155" s="20">
+      <c r="E155" s="18">
         <v>-0.98</v>
       </c>
-      <c r="F155" s="13">
+      <c r="F155" s="12">
         <v>0.06</v>
       </c>
       <c r="G155" s="2">
         <v>281</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7">
+      <c r="C156" s="2">
+        <v>56</v>
+      </c>
       <c r="D156" s="2">
         <v>36</v>
       </c>
-      <c r="E156" s="20">
+      <c r="E156" s="18">
         <v>-0.88</v>
       </c>
-      <c r="F156" s="13">
+      <c r="F156" s="12">
         <v>0.5</v>
       </c>
       <c r="G156" s="2">
         <v>295</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7">
       <c r="A157" s="2">
         <v>2007</v>
       </c>
-      <c r="B157" s="20" t="s">
+      <c r="B157" s="18" t="s">
         <v>110</v>
       </c>
       <c r="C157" s="2">
@@ -6511,49 +6796,55 @@
       <c r="D157" s="2">
         <v>7</v>
       </c>
-      <c r="E157" s="20">
+      <c r="E157" s="18">
         <v>0.2</v>
       </c>
-      <c r="F157" s="13">
+      <c r="F157" s="12">
         <v>0.1</v>
       </c>
       <c r="G157" s="2">
         <v>171</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7">
+      <c r="C158" s="2">
+        <v>57</v>
+      </c>
       <c r="D158" s="2">
         <v>41</v>
       </c>
-      <c r="E158" s="20">
+      <c r="E158" s="18">
         <v>-0.5</v>
       </c>
-      <c r="F158" s="13">
+      <c r="F158" s="12">
         <v>0.2</v>
       </c>
       <c r="G158" s="2">
         <v>174</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7">
+      <c r="C159" s="2">
+        <v>57</v>
+      </c>
       <c r="D159" s="2">
         <v>41</v>
       </c>
-      <c r="E159" s="20">
+      <c r="E159" s="18">
         <v>-0.9</v>
       </c>
-      <c r="F159" s="13">
+      <c r="F159" s="12">
         <v>0.2</v>
       </c>
       <c r="G159" s="2">
         <v>175</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7">
       <c r="A160" s="2">
         <v>2009</v>
       </c>
-      <c r="B160" s="20" t="s">
+      <c r="B160" s="18" t="s">
         <v>111</v>
       </c>
       <c r="C160" s="2">
@@ -6562,63 +6853,72 @@
       <c r="D160" s="2">
         <v>7</v>
       </c>
-      <c r="E160" s="20">
+      <c r="E160" s="18">
         <v>-1.4</v>
       </c>
-      <c r="F160" s="13">
+      <c r="F160" s="12">
         <v>0.06</v>
       </c>
       <c r="G160" s="2">
         <v>294</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:8">
+      <c r="C161" s="2">
+        <v>58</v>
+      </c>
       <c r="D161" s="2">
         <v>36</v>
       </c>
-      <c r="E161" s="20">
+      <c r="E161" s="18">
         <v>-1.1000000000000001</v>
       </c>
-      <c r="F161" s="13">
+      <c r="F161" s="12">
         <v>0.06</v>
       </c>
       <c r="G161" s="2">
         <v>300</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:8">
+      <c r="C162" s="2">
+        <v>58</v>
+      </c>
       <c r="D162" s="2">
         <v>41</v>
       </c>
-      <c r="E162" s="20">
+      <c r="E162" s="18">
         <v>-1.6</v>
       </c>
-      <c r="F162" s="13">
+      <c r="F162" s="12">
         <v>0.06</v>
       </c>
       <c r="G162" s="2">
         <v>290</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:8">
+      <c r="C163" s="2">
+        <v>58</v>
+      </c>
       <c r="D163" s="2">
         <v>41</v>
       </c>
-      <c r="E163" s="20">
+      <c r="E163" s="18">
         <v>-1.8</v>
       </c>
-      <c r="F163" s="13">
+      <c r="F163" s="12">
         <v>0.06</v>
       </c>
       <c r="G163" s="2">
         <v>295</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:8">
       <c r="A164" s="2">
         <v>2007</v>
       </c>
-      <c r="B164" s="20" t="s">
+      <c r="B164" s="18" t="s">
         <v>112</v>
       </c>
       <c r="C164" s="2">
@@ -6627,10 +6927,10 @@
       <c r="D164" s="2">
         <v>1</v>
       </c>
-      <c r="E164" s="20">
+      <c r="E164" s="18">
         <v>-0.3</v>
       </c>
-      <c r="F164" s="13">
+      <c r="F164" s="12">
         <v>0.1</v>
       </c>
       <c r="G164" s="2">
@@ -6638,53 +6938,62 @@
       </c>
       <c r="H164" s="2"/>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:8">
+      <c r="C165" s="2">
+        <v>59</v>
+      </c>
       <c r="D165" s="2">
         <v>36</v>
       </c>
-      <c r="E165" s="20">
+      <c r="E165" s="18">
         <v>-0.8</v>
       </c>
-      <c r="F165" s="13">
+      <c r="F165" s="12">
         <v>0.1</v>
       </c>
       <c r="G165" s="2">
         <v>152</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:8">
+      <c r="C166" s="2">
+        <v>59</v>
+      </c>
       <c r="D166" s="2">
         <v>36</v>
       </c>
-      <c r="E166" s="20">
+      <c r="E166" s="18">
         <v>-0.8</v>
       </c>
-      <c r="F166" s="13">
+      <c r="F166" s="12">
         <v>0.1</v>
       </c>
       <c r="G166" s="2">
         <v>143</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:8">
+      <c r="C167" s="2">
+        <v>59</v>
+      </c>
       <c r="D167" s="2">
         <v>36</v>
       </c>
-      <c r="E167" s="20">
+      <c r="E167" s="18">
         <v>-0.9</v>
       </c>
-      <c r="F167" s="13">
+      <c r="F167" s="12">
         <v>0.1</v>
       </c>
       <c r="G167" s="2">
         <v>150</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:8">
       <c r="A168" s="2">
         <v>2012</v>
       </c>
-      <c r="B168" s="20" t="s">
+      <c r="B168" s="18" t="s">
         <v>113</v>
       </c>
       <c r="C168" s="2">
@@ -6693,35 +7002,38 @@
       <c r="D168" s="2">
         <v>7</v>
       </c>
-      <c r="E168" s="20">
+      <c r="E168" s="18">
         <v>-0.8</v>
       </c>
-      <c r="F168" s="13">
+      <c r="F168" s="12">
         <v>0.36</v>
       </c>
       <c r="G168" s="2">
         <v>83</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:8">
+      <c r="C169" s="2">
+        <v>60</v>
+      </c>
       <c r="D169" s="2">
         <v>41</v>
       </c>
-      <c r="E169" s="20">
+      <c r="E169" s="18">
         <v>-1.2</v>
       </c>
-      <c r="F169" s="13">
+      <c r="F169" s="12">
         <v>0.36</v>
       </c>
       <c r="G169" s="2">
         <v>84</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:8">
       <c r="A170" s="2">
         <v>2010</v>
       </c>
-      <c r="B170" s="20" t="s">
+      <c r="B170" s="18" t="s">
         <v>114</v>
       </c>
       <c r="C170" s="2">
@@ -6730,35 +7042,38 @@
       <c r="D170" s="2">
         <v>42</v>
       </c>
-      <c r="E170" s="20">
+      <c r="E170" s="18">
         <v>-1.5</v>
       </c>
-      <c r="F170" s="13">
+      <c r="F170" s="12">
         <v>0.57999999999999996</v>
       </c>
       <c r="G170" s="2">
         <v>85</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:8">
+      <c r="C171" s="2">
+        <v>61</v>
+      </c>
       <c r="D171" s="2">
         <v>38</v>
       </c>
-      <c r="E171" s="20">
+      <c r="E171" s="18">
         <v>-1.5</v>
       </c>
-      <c r="F171" s="13">
+      <c r="F171" s="12">
         <v>0.57999999999999996</v>
       </c>
       <c r="G171" s="2">
         <v>83</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:8">
       <c r="A172" s="2">
         <v>2009</v>
       </c>
-      <c r="B172" s="20" t="s">
+      <c r="B172" s="18" t="s">
         <v>115</v>
       </c>
       <c r="C172" s="2">
@@ -6767,35 +7082,38 @@
       <c r="D172" s="2">
         <v>41</v>
       </c>
-      <c r="E172" s="20">
+      <c r="E172" s="18">
         <v>-0.44</v>
       </c>
-      <c r="F172" s="13">
+      <c r="F172" s="12">
         <v>0.02</v>
       </c>
       <c r="G172" s="2">
         <v>1396</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:8">
+      <c r="C173" s="2">
+        <v>62</v>
+      </c>
       <c r="D173" s="2">
         <v>12</v>
       </c>
-      <c r="E173" s="20">
+      <c r="E173" s="18">
         <v>-0.53</v>
       </c>
-      <c r="F173" s="13">
+      <c r="F173" s="12">
         <v>0.02</v>
       </c>
       <c r="G173" s="2">
         <v>1393</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:8">
       <c r="A174" s="2">
         <v>2010</v>
       </c>
-      <c r="B174" s="20" t="s">
+      <c r="B174" s="18" t="s">
         <v>116</v>
       </c>
       <c r="C174" s="2">
@@ -6804,35 +7122,38 @@
       <c r="D174" s="2">
         <v>41</v>
       </c>
-      <c r="E174" s="20">
+      <c r="E174" s="18">
         <v>-0.81</v>
       </c>
-      <c r="F174" s="13">
+      <c r="F174" s="12">
         <v>0.06</v>
       </c>
       <c r="G174" s="2">
         <v>513</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:8">
+      <c r="C175" s="2">
+        <v>63</v>
+      </c>
       <c r="D175" s="2">
         <v>12</v>
       </c>
-      <c r="E175" s="20">
+      <c r="E175" s="18">
         <v>-0.85</v>
       </c>
-      <c r="F175" s="13">
+      <c r="F175" s="12">
         <v>0.06</v>
       </c>
       <c r="G175" s="2">
         <v>494</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:8">
       <c r="A176" s="2">
         <v>2007</v>
       </c>
-      <c r="B176" s="20" t="s">
+      <c r="B176" s="18" t="s">
         <v>117</v>
       </c>
       <c r="C176" s="2">
@@ -6841,35 +7162,38 @@
       <c r="D176" s="2">
         <v>29</v>
       </c>
-      <c r="E176" s="20">
+      <c r="E176" s="18">
         <v>-0.2</v>
       </c>
-      <c r="F176" s="13">
+      <c r="F176" s="12">
         <v>0.1</v>
       </c>
       <c r="G176" s="2">
         <v>152</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:8">
+      <c r="C177" s="2">
+        <v>64</v>
+      </c>
       <c r="D177" s="2">
         <v>39</v>
       </c>
-      <c r="E177" s="20">
+      <c r="E177" s="18">
         <v>-0.5</v>
       </c>
-      <c r="F177" s="13">
+      <c r="F177" s="12">
         <v>0.1</v>
       </c>
       <c r="G177" s="2">
         <v>144</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:8">
       <c r="A178" s="2">
         <v>2008</v>
       </c>
-      <c r="B178" s="20" t="s">
+      <c r="B178" s="18" t="s">
         <v>118</v>
       </c>
       <c r="C178" s="2">
@@ -6878,10 +7202,10 @@
       <c r="D178" s="2">
         <v>16</v>
       </c>
-      <c r="E178" s="20">
+      <c r="E178" s="18">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="F178" s="13">
+      <c r="F178" s="12">
         <v>0.09</v>
       </c>
       <c r="G178" s="2">
@@ -6889,39 +7213,45 @@
       </c>
       <c r="H178" s="2"/>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:8">
+      <c r="C179" s="2">
+        <v>65</v>
+      </c>
       <c r="D179" s="2">
         <v>42</v>
       </c>
-      <c r="E179" s="20">
+      <c r="E179" s="18">
         <v>-0.57999999999999996</v>
       </c>
-      <c r="F179" s="13">
+      <c r="F179" s="12">
         <v>0.1</v>
       </c>
       <c r="G179" s="2">
         <v>132</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:8">
+      <c r="C180" s="2">
+        <v>65</v>
+      </c>
       <c r="D180" s="2">
         <v>42</v>
       </c>
-      <c r="E180" s="20">
+      <c r="E180" s="18">
         <v>-0.63</v>
       </c>
-      <c r="F180" s="13">
+      <c r="F180" s="12">
         <v>0.09</v>
       </c>
       <c r="G180" s="2">
         <v>132</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:8">
       <c r="A181" s="2">
         <v>2007</v>
       </c>
-      <c r="B181" s="20" t="s">
+      <c r="B181" s="18" t="s">
         <v>119</v>
       </c>
       <c r="C181" s="2">
@@ -6930,49 +7260,55 @@
       <c r="D181" s="4">
         <v>5</v>
       </c>
-      <c r="E181" s="20">
+      <c r="E181" s="18">
         <v>-0.3</v>
       </c>
-      <c r="F181" s="13">
+      <c r="F181" s="12">
         <v>0.1</v>
       </c>
       <c r="G181" s="2">
         <v>138</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:8">
+      <c r="C182" s="2">
+        <v>66</v>
+      </c>
       <c r="D182" s="2">
         <v>38</v>
       </c>
-      <c r="E182" s="20">
+      <c r="E182" s="18">
         <v>-0.8</v>
       </c>
-      <c r="F182" s="13">
+      <c r="F182" s="12">
         <v>0.1</v>
       </c>
       <c r="G182" s="2">
         <v>124</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:8">
+      <c r="C183" s="2">
+        <v>66</v>
+      </c>
       <c r="D183" s="2">
         <v>38</v>
       </c>
-      <c r="E183" s="20">
+      <c r="E183" s="18">
         <v>-1</v>
       </c>
-      <c r="F183" s="13">
+      <c r="F183" s="12">
         <v>0.1</v>
       </c>
       <c r="G183" s="2">
         <v>136</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:8">
       <c r="A184" s="2">
         <v>2009</v>
       </c>
-      <c r="B184" s="20" t="s">
+      <c r="B184" s="18" t="s">
         <v>120</v>
       </c>
       <c r="C184" s="2">
@@ -6981,49 +7317,55 @@
       <c r="D184" s="2">
         <v>7</v>
       </c>
-      <c r="E184" s="20">
+      <c r="E184" s="18">
         <v>0.17</v>
       </c>
-      <c r="F184" s="13">
+      <c r="F184" s="12">
         <v>0.11</v>
       </c>
       <c r="G184" s="2">
         <v>122</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:8">
+      <c r="C185" s="2">
+        <v>67</v>
+      </c>
       <c r="D185" s="2">
         <v>41</v>
       </c>
-      <c r="E185" s="20">
+      <c r="E185" s="18">
         <v>-0.66</v>
       </c>
-      <c r="F185" s="13">
+      <c r="F185" s="12">
         <v>0.11</v>
       </c>
       <c r="G185" s="2">
         <v>125</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:8">
+      <c r="C186" s="2">
+        <v>67</v>
+      </c>
       <c r="D186" s="2">
         <v>41</v>
       </c>
-      <c r="E186" s="20">
+      <c r="E186" s="18">
         <v>-0.53</v>
       </c>
-      <c r="F186" s="13">
+      <c r="F186" s="12">
         <v>0.11</v>
       </c>
       <c r="G186" s="2">
         <v>123</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:8">
       <c r="A187" s="2">
         <v>2010</v>
       </c>
-      <c r="B187" s="20" t="s">
+      <c r="B187" s="18" t="s">
         <v>121</v>
       </c>
       <c r="C187" s="2">
@@ -7032,35 +7374,38 @@
       <c r="D187" s="2">
         <v>16</v>
       </c>
-      <c r="E187" s="20">
+      <c r="E187" s="18">
         <v>-0.06</v>
       </c>
-      <c r="F187" s="13">
+      <c r="F187" s="12">
         <v>0.06</v>
       </c>
       <c r="G187" s="2">
         <v>100</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:8">
+      <c r="C188" s="2">
+        <v>68</v>
+      </c>
       <c r="D188" s="2">
         <v>42</v>
       </c>
-      <c r="E188" s="20">
+      <c r="E188" s="18">
         <v>-1</v>
       </c>
-      <c r="F188" s="13">
+      <c r="F188" s="12">
         <v>0.06</v>
       </c>
       <c r="G188" s="2">
         <v>102</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:8">
       <c r="A189" s="2">
         <v>2012</v>
       </c>
-      <c r="B189" s="20" t="s">
+      <c r="B189" s="18" t="s">
         <v>122</v>
       </c>
       <c r="C189" s="2">
@@ -7069,35 +7414,38 @@
       <c r="D189" s="2">
         <v>7</v>
       </c>
-      <c r="E189" s="20">
+      <c r="E189" s="18">
         <v>-0.9</v>
       </c>
-      <c r="F189" s="13">
+      <c r="F189" s="12">
         <v>0.06</v>
       </c>
       <c r="G189" s="2">
         <v>125</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:8">
+      <c r="C190" s="2">
+        <v>69</v>
+      </c>
       <c r="D190" s="2">
         <v>41</v>
       </c>
-      <c r="E190" s="20">
+      <c r="E190" s="18">
         <v>-1.25</v>
       </c>
-      <c r="F190" s="13">
+      <c r="F190" s="12">
         <v>0.05</v>
       </c>
       <c r="G190" s="2">
         <v>132</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:8">
       <c r="A191" s="2">
         <v>2012</v>
       </c>
-      <c r="B191" s="20" t="s">
+      <c r="B191" s="18" t="s">
         <v>123</v>
       </c>
       <c r="C191" s="2">
@@ -7106,35 +7454,38 @@
       <c r="D191" s="2">
         <v>29</v>
       </c>
-      <c r="E191" s="20">
+      <c r="E191" s="18">
         <v>0.24</v>
       </c>
-      <c r="F191" s="13">
+      <c r="F191" s="12">
         <v>0.2</v>
       </c>
       <c r="G191" s="2">
         <v>221</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:8">
+      <c r="C192" s="2">
+        <v>70</v>
+      </c>
       <c r="D192" s="2">
         <v>39</v>
       </c>
-      <c r="E192" s="20">
+      <c r="E192" s="18">
         <v>-0.6</v>
       </c>
-      <c r="F192" s="13">
+      <c r="F192" s="12">
         <v>0.19</v>
       </c>
       <c r="G192" s="2">
         <v>228</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:8">
       <c r="A193" s="2">
         <v>2012</v>
       </c>
-      <c r="B193" s="20" t="s">
+      <c r="B193" s="18" t="s">
         <v>124</v>
       </c>
       <c r="C193" s="2">
@@ -7143,35 +7494,38 @@
       <c r="D193" s="2">
         <v>12</v>
       </c>
-      <c r="E193" s="20">
+      <c r="E193" s="18">
         <v>-0.25</v>
       </c>
-      <c r="F193" s="13">
+      <c r="F193" s="12">
         <v>0.09</v>
       </c>
       <c r="G193" s="2">
         <v>160</v>
       </c>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:8">
+      <c r="C194" s="2">
+        <v>71</v>
+      </c>
       <c r="D194" s="2">
         <v>43</v>
       </c>
-      <c r="E194" s="20">
+      <c r="E194" s="18">
         <v>-1.01</v>
       </c>
-      <c r="F194" s="13">
+      <c r="F194" s="12">
         <v>0.09</v>
       </c>
       <c r="G194" s="2">
         <v>152</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:8">
       <c r="A195" s="2">
         <v>2010</v>
       </c>
-      <c r="B195" s="20" t="s">
+      <c r="B195" s="18" t="s">
         <v>125</v>
       </c>
       <c r="C195" s="2">
@@ -7180,35 +7534,38 @@
       <c r="D195" s="2">
         <v>12</v>
       </c>
-      <c r="E195" s="20">
+      <c r="E195" s="18">
         <v>-0.1</v>
       </c>
-      <c r="F195" s="13">
+      <c r="F195" s="12">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="G195" s="2">
         <v>1556</v>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:8">
+      <c r="C196" s="2">
+        <v>72</v>
+      </c>
       <c r="D196" s="4">
         <v>41</v>
       </c>
-      <c r="E196" s="20">
+      <c r="E196" s="18">
         <v>-0.1</v>
       </c>
-      <c r="F196" s="13">
+      <c r="F196" s="12">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="G196" s="2">
         <v>1562</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:8">
       <c r="A197" s="2">
         <v>2012</v>
       </c>
-      <c r="B197" s="20" t="s">
+      <c r="B197" s="18" t="s">
         <v>126</v>
       </c>
       <c r="C197" s="2">
@@ -7217,49 +7574,55 @@
       <c r="D197" s="2">
         <v>7</v>
       </c>
-      <c r="E197" s="20">
+      <c r="E197" s="18">
         <v>-0.54</v>
       </c>
-      <c r="F197" s="13">
+      <c r="F197" s="12">
         <v>0.08</v>
       </c>
       <c r="G197" s="2">
         <v>144</v>
       </c>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:8">
+      <c r="C198" s="2">
+        <v>73</v>
+      </c>
       <c r="D198" s="4">
         <v>41</v>
       </c>
-      <c r="E198" s="20">
+      <c r="E198" s="18">
         <v>-1.05</v>
       </c>
-      <c r="F198" s="13">
+      <c r="F198" s="12">
         <v>0.08</v>
       </c>
       <c r="G198" s="2">
         <v>146</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:8">
+      <c r="C199" s="2">
+        <v>73</v>
+      </c>
       <c r="D199" s="4">
         <v>41</v>
       </c>
-      <c r="E199" s="20">
+      <c r="E199" s="18">
         <v>-0.92</v>
       </c>
-      <c r="F199" s="13">
+      <c r="F199" s="12">
         <v>0.08</v>
       </c>
       <c r="G199" s="2">
         <v>148</v>
       </c>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:8">
       <c r="A200" s="2">
         <v>2007</v>
       </c>
-      <c r="B200" s="20" t="s">
+      <c r="B200" s="18" t="s">
         <v>127</v>
       </c>
       <c r="C200" s="2">
@@ -7271,7 +7634,7 @@
       <c r="E200" s="2">
         <v>0</v>
       </c>
-      <c r="F200" s="13">
+      <c r="F200" s="12">
         <v>0.1</v>
       </c>
       <c r="G200" s="2">
@@ -7279,53 +7642,62 @@
       </c>
       <c r="H200" s="2"/>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:8">
+      <c r="C201" s="2">
+        <v>74</v>
+      </c>
       <c r="D201" s="2">
         <v>36</v>
       </c>
-      <c r="E201" s="20">
+      <c r="E201" s="18">
         <v>-0.5</v>
       </c>
-      <c r="F201" s="13">
+      <c r="F201" s="12">
         <v>0.1</v>
       </c>
       <c r="G201" s="2">
         <v>88</v>
       </c>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:8">
+      <c r="C202" s="2">
+        <v>74</v>
+      </c>
       <c r="D202" s="2">
         <v>36</v>
       </c>
-      <c r="E202" s="20">
+      <c r="E202" s="18">
         <v>-0.7</v>
       </c>
-      <c r="F202" s="13">
+      <c r="F202" s="12">
         <v>0.1</v>
       </c>
       <c r="G202" s="2">
         <v>83</v>
       </c>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:8">
+      <c r="C203" s="2">
+        <v>74</v>
+      </c>
       <c r="D203" s="2">
         <v>36</v>
       </c>
-      <c r="E203" s="20">
+      <c r="E203" s="18">
         <v>-0.8</v>
       </c>
-      <c r="F203" s="13">
+      <c r="F203" s="12">
         <v>0.1</v>
       </c>
       <c r="G203" s="2">
         <v>91</v>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:8">
       <c r="A204" s="2">
         <v>2007</v>
       </c>
-      <c r="B204" s="20" t="s">
+      <c r="B204" s="18" t="s">
         <v>128</v>
       </c>
       <c r="C204" s="2">
@@ -7334,63 +7706,72 @@
       <c r="D204" s="4">
         <v>5</v>
       </c>
-      <c r="E204" s="20">
+      <c r="E204" s="18">
         <v>-1.4</v>
       </c>
-      <c r="F204" s="13">
+      <c r="F204" s="12">
         <v>0.1</v>
       </c>
       <c r="G204" s="2">
         <v>161</v>
       </c>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:8">
+      <c r="C205" s="2">
+        <v>75</v>
+      </c>
       <c r="D205" s="2">
         <v>36</v>
       </c>
-      <c r="E205" s="20">
+      <c r="E205" s="18">
         <v>-1.1000000000000001</v>
       </c>
-      <c r="F205" s="13">
+      <c r="F205" s="12">
         <v>0.1</v>
       </c>
       <c r="G205" s="2">
         <v>154</v>
       </c>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:8">
+      <c r="C206" s="2">
+        <v>75</v>
+      </c>
       <c r="D206" s="2">
         <v>38</v>
       </c>
-      <c r="E206" s="20">
+      <c r="E206" s="18">
         <v>-1.7</v>
       </c>
-      <c r="F206" s="13">
+      <c r="F206" s="12">
         <v>0.1</v>
       </c>
       <c r="G206" s="2">
         <v>144</v>
       </c>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:8">
+      <c r="C207" s="2">
+        <v>75</v>
+      </c>
       <c r="D207" s="2">
         <v>38</v>
       </c>
-      <c r="E207" s="20">
+      <c r="E207" s="18">
         <v>-1.9</v>
       </c>
-      <c r="F207" s="13">
+      <c r="F207" s="12">
         <v>0.1</v>
       </c>
       <c r="G207" s="2">
         <v>148</v>
       </c>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:8">
       <c r="A208" s="2">
         <v>2007</v>
       </c>
-      <c r="B208" s="20" t="s">
+      <c r="B208" s="18" t="s">
         <v>129</v>
       </c>
       <c r="C208" s="2">
@@ -7399,35 +7780,38 @@
       <c r="D208" s="2">
         <v>7</v>
       </c>
-      <c r="E208" s="20">
+      <c r="E208" s="18">
         <v>-1.4</v>
       </c>
-      <c r="F208" s="13">
+      <c r="F208" s="12">
         <v>0.1</v>
       </c>
       <c r="G208" s="2">
         <v>254</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:7">
+      <c r="C209" s="2">
+        <v>76</v>
+      </c>
       <c r="D209" s="2">
         <v>36</v>
       </c>
-      <c r="E209" s="20">
+      <c r="E209" s="18">
         <v>-1</v>
       </c>
-      <c r="F209" s="13">
+      <c r="F209" s="12">
         <v>0.1</v>
       </c>
       <c r="G209" s="2">
         <v>526</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:7">
       <c r="A210" s="2">
         <v>2009</v>
       </c>
-      <c r="B210" s="20" t="s">
+      <c r="B210" s="18" t="s">
         <v>130</v>
       </c>
       <c r="C210" s="2">
@@ -7436,24 +7820,27 @@
       <c r="D210" s="2">
         <v>7</v>
       </c>
-      <c r="E210" s="20">
+      <c r="E210" s="18">
         <v>-0.75</v>
       </c>
-      <c r="F210" s="20">
+      <c r="F210" s="18">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="G210" s="2">
         <v>116</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:7">
+      <c r="C211" s="2">
+        <v>77</v>
+      </c>
       <c r="D211" s="2">
         <v>36</v>
       </c>
-      <c r="E211" s="20">
+      <c r="E211" s="18">
         <v>-0.64</v>
       </c>
-      <c r="F211" s="20">
+      <c r="F211" s="18">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="G211" s="2">
@@ -7476,12 +7863,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -7493,12 +7880,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
